--- a/Assets/StreamingAssets/scheduling/data/2023EarthAssets.xlsx
+++ b/Assets/StreamingAssets/scheduling/data/2023EarthAssets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
   <si>
     <t xml:space="preserve">epoch: </t>
   </si>
@@ -623,23 +623,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -699,14 +683,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="RAC 2-1-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
     <tableStyle name="Artemis III-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -718,7 +702,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A2:AT1132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A2:AT1130">
+  <autoFilter ref="A2:AT1130">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Facility"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A3:AT1132">
     <sortCondition ref="B3:B1132"/>
   </sortState>
@@ -972,13 +963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN964"/>
+  <dimension ref="A1:BN1130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ22" sqref="AQ22"/>
+      <selection pane="bottomRight" activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1260,7 @@
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
     </row>
-    <row r="3" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
@@ -1552,7 +1543,7 @@
       </c>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS4" s="7">
         <v>1</v>
@@ -1706,7 +1697,7 @@
       </c>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AS5" s="7">
         <v>1</v>
@@ -1731,7 +1722,7 @@
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
     </row>
-    <row r="6" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>54</v>
       </c>
@@ -1885,7 +1876,7 @@
       <c r="BM6" s="1"/>
       <c r="BN6" s="1"/>
     </row>
-    <row r="7" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -2168,7 +2159,7 @@
       </c>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS8" s="7">
         <v>1</v>
@@ -2322,7 +2313,7 @@
       </c>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AS9" s="7">
         <v>1</v>
@@ -2476,7 +2467,7 @@
       </c>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AS10" s="7">
         <v>1</v>
@@ -2630,7 +2621,7 @@
       </c>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS11" s="7">
         <v>1</v>
@@ -2655,7 +2646,7 @@
       <c r="BM11" s="1"/>
       <c r="BN11" s="1"/>
     </row>
-    <row r="12" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
@@ -2938,7 +2929,7 @@
       </c>
       <c r="AQ13" s="7"/>
       <c r="AR13" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AS13" s="7">
         <v>1</v>
@@ -2963,7 +2954,7 @@
       <c r="BM13" s="1"/>
       <c r="BN13" s="1"/>
     </row>
-    <row r="14" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>54</v>
       </c>
@@ -3117,7 +3108,7 @@
       <c r="BM14" s="1"/>
       <c r="BN14" s="1"/>
     </row>
-    <row r="15" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>54</v>
       </c>
@@ -3270,7 +3261,7 @@
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
     </row>
-    <row r="16" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
@@ -3423,7 +3414,7 @@
       <c r="BM16" s="1"/>
       <c r="BN16" s="1"/>
     </row>
-    <row r="17" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
@@ -3576,7 +3567,7 @@
       <c r="BM17" s="1"/>
       <c r="BN17" s="1"/>
     </row>
-    <row r="18" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>54</v>
       </c>
@@ -3729,7 +3720,7 @@
       <c r="BM18" s="1"/>
       <c r="BN18" s="1"/>
     </row>
-    <row r="19" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
@@ -3882,7 +3873,7 @@
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
     </row>
-    <row r="20" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -4035,7 +4026,7 @@
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
     </row>
-    <row r="21" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>54</v>
       </c>
@@ -4188,7 +4179,7 @@
       <c r="BM21" s="1"/>
       <c r="BN21" s="1"/>
     </row>
-    <row r="22" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
@@ -4470,7 +4461,7 @@
       </c>
       <c r="AQ23" s="7"/>
       <c r="AR23" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS23" s="7">
         <v>1</v>
@@ -4494,7 +4485,7 @@
       <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
     </row>
-    <row r="24" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -4647,7 +4638,7 @@
       <c r="BM24" s="1"/>
       <c r="BN24" s="1"/>
     </row>
-    <row r="25" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
@@ -4800,7 +4791,7 @@
       <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
     </row>
-    <row r="26" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
@@ -4953,7 +4944,7 @@
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
     </row>
-    <row r="27" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
@@ -5106,7 +5097,7 @@
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
     </row>
-    <row r="28" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
@@ -5259,7 +5250,7 @@
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
     </row>
-    <row r="29" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
@@ -5541,7 +5532,7 @@
       </c>
       <c r="AQ30" s="7"/>
       <c r="AR30" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS30" s="7">
         <v>1</v>
@@ -5565,7 +5556,7 @@
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
     </row>
-    <row r="31" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>54</v>
       </c>
@@ -5718,7 +5709,7 @@
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
     </row>
-    <row r="32" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>54</v>
       </c>
@@ -5871,7 +5862,7 @@
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
     </row>
-    <row r="33" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
@@ -6024,7 +6015,7 @@
       <c r="BM33" s="1"/>
       <c r="BN33" s="1"/>
     </row>
-    <row r="34" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>54</v>
       </c>
@@ -6177,7 +6168,7 @@
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
     </row>
-    <row r="35" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>54</v>
       </c>
@@ -6459,7 +6450,7 @@
       </c>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AS36" s="7">
         <v>1</v>
@@ -6483,7 +6474,7 @@
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
     </row>
-    <row r="37" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>54</v>
       </c>
@@ -6636,7 +6627,7 @@
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
     </row>
-    <row r="38" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
@@ -6789,7 +6780,7 @@
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
     </row>
-    <row r="39" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>54</v>
       </c>
@@ -6942,7 +6933,7 @@
       <c r="BM39" s="1"/>
       <c r="BN39" s="1"/>
     </row>
-    <row r="40" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>54</v>
       </c>
@@ -7224,7 +7215,7 @@
       </c>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AS41" s="7">
         <v>1</v>
@@ -7248,7 +7239,7 @@
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
     </row>
-    <row r="42" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>54</v>
       </c>
@@ -7401,7 +7392,7 @@
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
     </row>
-    <row r="43" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>54</v>
       </c>
@@ -7554,7 +7545,7 @@
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
     </row>
-    <row r="44" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>54</v>
       </c>
@@ -7707,7 +7698,7 @@
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
     </row>
-    <row r="45" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>54</v>
       </c>
@@ -7989,7 +7980,7 @@
       </c>
       <c r="AQ46" s="7"/>
       <c r="AR46" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS46" s="7">
         <v>1</v>
@@ -8013,7 +8004,7 @@
       <c r="BM46" s="1"/>
       <c r="BN46" s="1"/>
     </row>
-    <row r="47" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
@@ -8166,7 +8157,7 @@
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
     </row>
-    <row r="48" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>54</v>
       </c>
@@ -8319,7 +8310,7 @@
       <c r="BM48" s="1"/>
       <c r="BN48" s="1"/>
     </row>
-    <row r="49" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>54</v>
       </c>
@@ -8472,7 +8463,7 @@
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
     </row>
-    <row r="50" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>54</v>
       </c>
@@ -8625,7 +8616,7 @@
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
     </row>
-    <row r="51" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>54</v>
       </c>
@@ -8778,7 +8769,7 @@
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
     </row>
-    <row r="52" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>54</v>
       </c>
@@ -8931,7 +8922,7 @@
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
     </row>
-    <row r="53" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>54</v>
       </c>
@@ -9084,7 +9075,7 @@
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
     </row>
-    <row r="54" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>54</v>
       </c>
@@ -9366,7 +9357,7 @@
       </c>
       <c r="AQ55" s="7"/>
       <c r="AR55" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AS55" s="7">
         <v>1</v>
@@ -9520,7 +9511,7 @@
       </c>
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AS56" s="7">
         <v>1</v>
@@ -9674,7 +9665,7 @@
       </c>
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AS57" s="7">
         <v>1</v>
@@ -9828,7 +9819,7 @@
       </c>
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AS58" s="7">
         <v>1</v>
@@ -9982,7 +9973,7 @@
       </c>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AS59" s="7">
         <v>1</v>
@@ -10007,7 +9998,7 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
     </row>
-    <row r="60" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>54</v>
       </c>
@@ -10161,7 +10152,7 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
     </row>
-    <row r="61" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>54</v>
       </c>
@@ -10315,7 +10306,7 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
     </row>
-    <row r="62" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>54</v>
       </c>
@@ -10469,7 +10460,7 @@
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
     </row>
-    <row r="63" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>54</v>
       </c>
@@ -10623,7 +10614,7 @@
       <c r="BM63" s="1"/>
       <c r="BN63" s="1"/>
     </row>
-    <row r="64" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>54</v>
       </c>
@@ -10777,7 +10768,7 @@
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
     </row>
-    <row r="65" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>54</v>
       </c>
@@ -11060,7 +11051,7 @@
       </c>
       <c r="AQ66" s="1"/>
       <c r="AR66" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS66" s="7">
         <v>1</v>
@@ -11085,7 +11076,7 @@
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
     </row>
-    <row r="67" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>54</v>
       </c>
@@ -11239,7 +11230,7 @@
       <c r="BM67" s="1"/>
       <c r="BN67" s="1"/>
     </row>
-    <row r="68" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>54</v>
       </c>
@@ -11393,7 +11384,7 @@
       <c r="BM68" s="1"/>
       <c r="BN68" s="1"/>
     </row>
-    <row r="69" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>54</v>
       </c>
@@ -11549,7 +11540,7 @@
       <c r="BM69" s="1"/>
       <c r="BN69" s="1"/>
     </row>
-    <row r="70" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>54</v>
       </c>
@@ -11705,7 +11696,7 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
     </row>
-    <row r="71" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>54</v>
       </c>
@@ -11861,7 +11852,7 @@
       <c r="BM71" s="1"/>
       <c r="BN71" s="1"/>
     </row>
-    <row r="72" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>54</v>
       </c>
@@ -12017,12 +12008,12 @@
       <c r="BM72" s="1"/>
       <c r="BN72" s="1"/>
     </row>
-    <row r="73" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73" s="8">
         <v>0</v>
@@ -12145,11 +12136,11 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AR73" s="7"/>
       <c r="AS73" s="7">
-        <v>1.6203703703703679E-3</v>
+        <v>6.4814814814814796E-3</v>
       </c>
       <c r="AT73" s="7" t="s">
         <v>55</v>
@@ -12173,12 +12164,12 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
     </row>
-    <row r="74" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C74" s="8">
         <v>0</v>
@@ -12301,13 +12292,13 @@
         <v>0</v>
       </c>
       <c r="AQ74" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AR74" s="7"/>
       <c r="AS74" s="7">
         <v>6.4814814814814796E-3</v>
       </c>
-      <c r="AT74" s="7" t="s">
+      <c r="AT74" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU74" s="1"/>
@@ -12330,11 +12321,11 @@
       <c r="BN74" s="1"/>
     </row>
     <row r="75" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
-        <v>54</v>
+      <c r="A75" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C75" s="8">
         <v>0</v>
@@ -12456,14 +12447,14 @@
       <c r="AP75" s="8">
         <v>0</v>
       </c>
-      <c r="AQ75" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR75" s="7"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="7">
+        <v>18</v>
+      </c>
       <c r="AS75" s="7">
-        <v>6.4814814814814796E-3</v>
-      </c>
-      <c r="AT75" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT75" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU75" s="1"/>
@@ -12490,7 +12481,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76" s="8">
         <v>0</v>
@@ -12614,12 +12605,12 @@
       </c>
       <c r="AQ76" s="1"/>
       <c r="AR76" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AS76" s="7">
         <v>1</v>
       </c>
-      <c r="AT76" s="7" t="s">
+      <c r="AT76" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU76" s="1"/>
@@ -12646,7 +12637,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C77" s="8">
         <v>0</v>
@@ -12775,7 +12766,7 @@
       <c r="AS77" s="7">
         <v>1</v>
       </c>
-      <c r="AT77" s="13" t="s">
+      <c r="AT77" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU77" s="1"/>
@@ -12802,7 +12793,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="8">
         <v>0</v>
@@ -12926,12 +12917,12 @@
       </c>
       <c r="AQ78" s="1"/>
       <c r="AR78" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AS78" s="7">
         <v>1</v>
       </c>
-      <c r="AT78" s="7" t="s">
+      <c r="AT78" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU78" s="1"/>
@@ -12958,7 +12949,7 @@
         <v>56</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C79" s="8">
         <v>0</v>
@@ -13082,7 +13073,7 @@
       </c>
       <c r="AQ79" s="1"/>
       <c r="AR79" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AS79" s="7">
         <v>1</v>
@@ -13114,7 +13105,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C80" s="8">
         <v>0</v>
@@ -13238,12 +13229,12 @@
       </c>
       <c r="AQ80" s="1"/>
       <c r="AR80" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AS80" s="7">
         <v>1</v>
       </c>
-      <c r="AT80" s="13" t="s">
+      <c r="AT80" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU80" s="1"/>
@@ -13270,7 +13261,7 @@
         <v>56</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C81" s="8">
         <v>0</v>
@@ -13394,7 +13385,7 @@
       </c>
       <c r="AQ81" s="1"/>
       <c r="AR81" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS81" s="7">
         <v>1</v>
@@ -13426,7 +13417,7 @@
         <v>56</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C82" s="8">
         <v>0</v>
@@ -13550,12 +13541,12 @@
       </c>
       <c r="AQ82" s="1"/>
       <c r="AR82" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AS82" s="7">
         <v>1</v>
       </c>
-      <c r="AT82" s="7" t="s">
+      <c r="AT82" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU82" s="1"/>
@@ -13582,7 +13573,7 @@
         <v>56</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="8">
         <v>0</v>
@@ -13706,7 +13697,7 @@
       </c>
       <c r="AQ83" s="1"/>
       <c r="AR83" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AS83" s="7">
         <v>1</v>
@@ -13738,7 +13729,7 @@
         <v>56</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C84" s="8">
         <v>0</v>
@@ -13862,12 +13853,12 @@
       </c>
       <c r="AQ84" s="1"/>
       <c r="AR84" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AS84" s="7">
         <v>1</v>
       </c>
-      <c r="AT84" s="13" t="s">
+      <c r="AT84" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU84" s="1"/>
@@ -13894,7 +13885,7 @@
         <v>56</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C85" s="8">
         <v>0</v>
@@ -14018,7 +14009,7 @@
       </c>
       <c r="AQ85" s="1"/>
       <c r="AR85" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AS85" s="7">
         <v>1</v>
@@ -14046,11 +14037,11 @@
       <c r="BN85" s="1"/>
     </row>
     <row r="86" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C86" s="8">
         <v>0</v>
@@ -14172,14 +14163,14 @@
       <c r="AP86" s="8">
         <v>0</v>
       </c>
-      <c r="AQ86" s="1"/>
+      <c r="AQ86" s="7"/>
       <c r="AR86" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AS86" s="7">
         <v>1</v>
       </c>
-      <c r="AT86" s="7" t="s">
+      <c r="AT86" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU86" s="1"/>
@@ -14201,143 +14192,53 @@
       <c r="BM86" s="1"/>
       <c r="BN86" s="1"/>
     </row>
-    <row r="87" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="8">
-        <v>0</v>
-      </c>
-      <c r="D87" s="8">
-        <v>0</v>
-      </c>
-      <c r="E87" s="8">
-        <v>0</v>
-      </c>
-      <c r="F87" s="10">
-        <v>0</v>
-      </c>
-      <c r="G87" s="10">
-        <v>30</v>
-      </c>
-      <c r="H87" s="8">
-        <v>0</v>
-      </c>
-      <c r="I87" s="8">
-        <v>0</v>
-      </c>
-      <c r="J87" s="8">
-        <v>0</v>
-      </c>
-      <c r="K87" s="8">
-        <v>0</v>
-      </c>
-      <c r="L87" s="8">
-        <v>0</v>
-      </c>
-      <c r="M87" s="8">
-        <v>0</v>
-      </c>
-      <c r="N87" s="8">
-        <v>0</v>
-      </c>
-      <c r="O87" s="8">
-        <v>0</v>
-      </c>
-      <c r="P87" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="8">
-        <v>0</v>
-      </c>
-      <c r="R87" s="8">
-        <v>0</v>
-      </c>
-      <c r="S87" s="8">
-        <v>0</v>
-      </c>
-      <c r="T87" s="8">
-        <v>0</v>
-      </c>
-      <c r="U87" s="8">
-        <v>0</v>
-      </c>
-      <c r="V87" s="8">
-        <v>0</v>
-      </c>
-      <c r="W87" s="8">
-        <v>0</v>
-      </c>
-      <c r="X87" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP87" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ87" s="7"/>
-      <c r="AR87" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS87" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT87" s="13" t="s">
-        <v>55</v>
-      </c>
+    <row r="87" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="3"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="3"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="3"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
       <c r="AU87" s="1"/>
       <c r="AV87" s="1"/>
       <c r="AW87" s="1"/>
@@ -14357,143 +14258,53 @@
       <c r="BM87" s="1"/>
       <c r="BN87" s="1"/>
     </row>
-    <row r="88" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="8">
-        <v>0</v>
-      </c>
-      <c r="D88" s="8">
-        <v>0</v>
-      </c>
-      <c r="E88" s="8">
-        <v>0</v>
-      </c>
-      <c r="F88" s="10">
-        <v>0</v>
-      </c>
-      <c r="G88" s="10">
-        <v>30</v>
-      </c>
-      <c r="H88" s="8">
-        <v>0</v>
-      </c>
-      <c r="I88" s="8">
-        <v>0</v>
-      </c>
-      <c r="J88" s="8">
-        <v>0</v>
-      </c>
-      <c r="K88" s="8">
-        <v>0</v>
-      </c>
-      <c r="L88" s="8">
-        <v>0</v>
-      </c>
-      <c r="M88" s="8">
-        <v>0</v>
-      </c>
-      <c r="N88" s="8">
-        <v>0</v>
-      </c>
-      <c r="O88" s="8">
-        <v>0</v>
-      </c>
-      <c r="P88" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="8">
-        <v>0</v>
-      </c>
-      <c r="R88" s="8">
-        <v>0</v>
-      </c>
-      <c r="S88" s="8">
-        <v>0</v>
-      </c>
-      <c r="T88" s="8">
-        <v>0</v>
-      </c>
-      <c r="U88" s="8">
-        <v>0</v>
-      </c>
-      <c r="V88" s="8">
-        <v>0</v>
-      </c>
-      <c r="W88" s="8">
-        <v>0</v>
-      </c>
-      <c r="X88" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP88" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ88" s="7"/>
-      <c r="AR88" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS88" s="7">
-        <v>1</v>
-      </c>
-      <c r="AT88" s="7" t="s">
-        <v>55</v>
-      </c>
+    <row r="88" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="3"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="3"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
       <c r="AU88" s="1"/>
       <c r="AV88" s="1"/>
       <c r="AW88" s="1"/>
@@ -14513,9 +14324,9 @@
       <c r="BM88" s="1"/>
       <c r="BN88" s="1"/>
     </row>
-    <row r="89" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -14579,7 +14390,7 @@
       <c r="BM89" s="1"/>
       <c r="BN89" s="1"/>
     </row>
-    <row r="90" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -14645,7 +14456,7 @@
       <c r="BM90" s="1"/>
       <c r="BN90" s="1"/>
     </row>
-    <row r="91" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -14711,7 +14522,7 @@
       <c r="BM91" s="1"/>
       <c r="BN91" s="1"/>
     </row>
-    <row r="92" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -14777,7 +14588,7 @@
       <c r="BM92" s="1"/>
       <c r="BN92" s="1"/>
     </row>
-    <row r="93" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -14843,7 +14654,7 @@
       <c r="BM93" s="1"/>
       <c r="BN93" s="1"/>
     </row>
-    <row r="94" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -14909,7 +14720,7 @@
       <c r="BM94" s="1"/>
       <c r="BN94" s="1"/>
     </row>
-    <row r="95" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -14975,7 +14786,7 @@
       <c r="BM95" s="1"/>
       <c r="BN95" s="1"/>
     </row>
-    <row r="96" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -15041,7 +14852,7 @@
       <c r="BM96" s="1"/>
       <c r="BN96" s="1"/>
     </row>
-    <row r="97" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -15107,7 +14918,7 @@
       <c r="BM97" s="1"/>
       <c r="BN97" s="1"/>
     </row>
-    <row r="98" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -15173,7 +14984,7 @@
       <c r="BM98" s="1"/>
       <c r="BN98" s="1"/>
     </row>
-    <row r="99" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -15239,7 +15050,7 @@
       <c r="BM99" s="1"/>
       <c r="BN99" s="1"/>
     </row>
-    <row r="100" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -15305,7 +15116,7 @@
       <c r="BM100" s="1"/>
       <c r="BN100" s="1"/>
     </row>
-    <row r="101" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -15371,7 +15182,7 @@
       <c r="BM101" s="1"/>
       <c r="BN101" s="1"/>
     </row>
-    <row r="102" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -15437,7 +15248,7 @@
       <c r="BM102" s="1"/>
       <c r="BN102" s="1"/>
     </row>
-    <row r="103" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -15503,7 +15314,7 @@
       <c r="BM103" s="1"/>
       <c r="BN103" s="1"/>
     </row>
-    <row r="104" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -15569,7 +15380,7 @@
       <c r="BM104" s="1"/>
       <c r="BN104" s="1"/>
     </row>
-    <row r="105" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -15635,7 +15446,7 @@
       <c r="BM105" s="1"/>
       <c r="BN105" s="1"/>
     </row>
-    <row r="106" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -15701,7 +15512,7 @@
       <c r="BM106" s="1"/>
       <c r="BN106" s="1"/>
     </row>
-    <row r="107" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -15767,7 +15578,7 @@
       <c r="BM107" s="1"/>
       <c r="BN107" s="1"/>
     </row>
-    <row r="108" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -15833,7 +15644,7 @@
       <c r="BM108" s="1"/>
       <c r="BN108" s="1"/>
     </row>
-    <row r="109" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -15899,7 +15710,7 @@
       <c r="BM109" s="1"/>
       <c r="BN109" s="1"/>
     </row>
-    <row r="110" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -15965,7 +15776,7 @@
       <c r="BM110" s="1"/>
       <c r="BN110" s="1"/>
     </row>
-    <row r="111" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -16031,7 +15842,7 @@
       <c r="BM111" s="1"/>
       <c r="BN111" s="1"/>
     </row>
-    <row r="112" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -16097,7 +15908,7 @@
       <c r="BM112" s="1"/>
       <c r="BN112" s="1"/>
     </row>
-    <row r="113" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -16163,7 +15974,7 @@
       <c r="BM113" s="1"/>
       <c r="BN113" s="1"/>
     </row>
-    <row r="114" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -16229,7 +16040,7 @@
       <c r="BM114" s="1"/>
       <c r="BN114" s="1"/>
     </row>
-    <row r="115" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -16295,7 +16106,7 @@
       <c r="BM115" s="1"/>
       <c r="BN115" s="1"/>
     </row>
-    <row r="116" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -16361,7 +16172,7 @@
       <c r="BM116" s="1"/>
       <c r="BN116" s="1"/>
     </row>
-    <row r="117" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -16427,7 +16238,7 @@
       <c r="BM117" s="1"/>
       <c r="BN117" s="1"/>
     </row>
-    <row r="118" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -16493,7 +16304,7 @@
       <c r="BM118" s="1"/>
       <c r="BN118" s="1"/>
     </row>
-    <row r="119" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -16559,7 +16370,7 @@
       <c r="BM119" s="1"/>
       <c r="BN119" s="1"/>
     </row>
-    <row r="120" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -16625,7 +16436,7 @@
       <c r="BM120" s="1"/>
       <c r="BN120" s="1"/>
     </row>
-    <row r="121" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -16691,7 +16502,7 @@
       <c r="BM121" s="1"/>
       <c r="BN121" s="1"/>
     </row>
-    <row r="122" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -16757,7 +16568,7 @@
       <c r="BM122" s="1"/>
       <c r="BN122" s="1"/>
     </row>
-    <row r="123" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -16823,7 +16634,7 @@
       <c r="BM123" s="1"/>
       <c r="BN123" s="1"/>
     </row>
-    <row r="124" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -16889,7 +16700,7 @@
       <c r="BM124" s="1"/>
       <c r="BN124" s="1"/>
     </row>
-    <row r="125" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -16955,7 +16766,7 @@
       <c r="BM125" s="1"/>
       <c r="BN125" s="1"/>
     </row>
-    <row r="126" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -17021,7 +16832,7 @@
       <c r="BM126" s="1"/>
       <c r="BN126" s="1"/>
     </row>
-    <row r="127" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -17087,7 +16898,7 @@
       <c r="BM127" s="1"/>
       <c r="BN127" s="1"/>
     </row>
-    <row r="128" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -17153,7 +16964,7 @@
       <c r="BM128" s="1"/>
       <c r="BN128" s="1"/>
     </row>
-    <row r="129" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -17219,7 +17030,7 @@
       <c r="BM129" s="1"/>
       <c r="BN129" s="1"/>
     </row>
-    <row r="130" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -17285,7 +17096,7 @@
       <c r="BM130" s="1"/>
       <c r="BN130" s="1"/>
     </row>
-    <row r="131" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -17351,7 +17162,7 @@
       <c r="BM131" s="1"/>
       <c r="BN131" s="1"/>
     </row>
-    <row r="132" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -17417,7 +17228,7 @@
       <c r="BM132" s="1"/>
       <c r="BN132" s="1"/>
     </row>
-    <row r="133" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -17483,7 +17294,7 @@
       <c r="BM133" s="1"/>
       <c r="BN133" s="1"/>
     </row>
-    <row r="134" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -17549,7 +17360,7 @@
       <c r="BM134" s="1"/>
       <c r="BN134" s="1"/>
     </row>
-    <row r="135" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -17615,7 +17426,7 @@
       <c r="BM135" s="1"/>
       <c r="BN135" s="1"/>
     </row>
-    <row r="136" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -17681,7 +17492,7 @@
       <c r="BM136" s="1"/>
       <c r="BN136" s="1"/>
     </row>
-    <row r="137" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -17747,7 +17558,7 @@
       <c r="BM137" s="1"/>
       <c r="BN137" s="1"/>
     </row>
-    <row r="138" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -17813,7 +17624,7 @@
       <c r="BM138" s="1"/>
       <c r="BN138" s="1"/>
     </row>
-    <row r="139" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -17879,7 +17690,7 @@
       <c r="BM139" s="1"/>
       <c r="BN139" s="1"/>
     </row>
-    <row r="140" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -17945,7 +17756,7 @@
       <c r="BM140" s="1"/>
       <c r="BN140" s="1"/>
     </row>
-    <row r="141" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -18011,7 +17822,7 @@
       <c r="BM141" s="1"/>
       <c r="BN141" s="1"/>
     </row>
-    <row r="142" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -18077,7 +17888,7 @@
       <c r="BM142" s="1"/>
       <c r="BN142" s="1"/>
     </row>
-    <row r="143" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -18143,7 +17954,7 @@
       <c r="BM143" s="1"/>
       <c r="BN143" s="1"/>
     </row>
-    <row r="144" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -18209,7 +18020,7 @@
       <c r="BM144" s="1"/>
       <c r="BN144" s="1"/>
     </row>
-    <row r="145" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -18275,7 +18086,7 @@
       <c r="BM145" s="1"/>
       <c r="BN145" s="1"/>
     </row>
-    <row r="146" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -18341,7 +18152,7 @@
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
     </row>
-    <row r="147" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -18407,7 +18218,7 @@
       <c r="BM147" s="1"/>
       <c r="BN147" s="1"/>
     </row>
-    <row r="148" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -18473,7 +18284,7 @@
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
     </row>
-    <row r="149" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -18539,7 +18350,7 @@
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
     </row>
-    <row r="150" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -18605,7 +18416,7 @@
       <c r="BM150" s="1"/>
       <c r="BN150" s="1"/>
     </row>
-    <row r="151" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -18671,7 +18482,7 @@
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
     </row>
-    <row r="152" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -18737,7 +18548,7 @@
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
     </row>
-    <row r="153" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -18803,7 +18614,7 @@
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
     </row>
-    <row r="154" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -18869,7 +18680,7 @@
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
     </row>
-    <row r="155" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -18935,7 +18746,7 @@
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
     </row>
-    <row r="156" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -19001,7 +18812,7 @@
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
     </row>
-    <row r="157" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -19067,7 +18878,7 @@
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
     </row>
-    <row r="158" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -19133,7 +18944,7 @@
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
     </row>
-    <row r="159" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -19199,7 +19010,7 @@
       <c r="BM159" s="1"/>
       <c r="BN159" s="1"/>
     </row>
-    <row r="160" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -19265,7 +19076,7 @@
       <c r="BM160" s="1"/>
       <c r="BN160" s="1"/>
     </row>
-    <row r="161" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -19331,7 +19142,7 @@
       <c r="BM161" s="1"/>
       <c r="BN161" s="1"/>
     </row>
-    <row r="162" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -19397,7 +19208,7 @@
       <c r="BM162" s="1"/>
       <c r="BN162" s="1"/>
     </row>
-    <row r="163" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -19463,7 +19274,7 @@
       <c r="BM163" s="1"/>
       <c r="BN163" s="1"/>
     </row>
-    <row r="164" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -19529,7 +19340,7 @@
       <c r="BM164" s="1"/>
       <c r="BN164" s="1"/>
     </row>
-    <row r="165" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -19595,7 +19406,7 @@
       <c r="BM165" s="1"/>
       <c r="BN165" s="1"/>
     </row>
-    <row r="166" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -19661,7 +19472,7 @@
       <c r="BM166" s="1"/>
       <c r="BN166" s="1"/>
     </row>
-    <row r="167" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -19727,7 +19538,7 @@
       <c r="BM167" s="1"/>
       <c r="BN167" s="1"/>
     </row>
-    <row r="168" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -19793,7 +19604,7 @@
       <c r="BM168" s="1"/>
       <c r="BN168" s="1"/>
     </row>
-    <row r="169" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -19859,7 +19670,7 @@
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
     </row>
-    <row r="170" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -19925,7 +19736,7 @@
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
     </row>
-    <row r="171" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -19991,7 +19802,7 @@
       <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
     </row>
-    <row r="172" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -20057,7 +19868,7 @@
       <c r="BM172" s="1"/>
       <c r="BN172" s="1"/>
     </row>
-    <row r="173" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -20123,7 +19934,7 @@
       <c r="BM173" s="1"/>
       <c r="BN173" s="1"/>
     </row>
-    <row r="174" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -20189,7 +20000,7 @@
       <c r="BM174" s="1"/>
       <c r="BN174" s="1"/>
     </row>
-    <row r="175" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -20255,7 +20066,7 @@
       <c r="BM175" s="1"/>
       <c r="BN175" s="1"/>
     </row>
-    <row r="176" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -20321,7 +20132,7 @@
       <c r="BM176" s="1"/>
       <c r="BN176" s="1"/>
     </row>
-    <row r="177" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -20387,7 +20198,7 @@
       <c r="BM177" s="1"/>
       <c r="BN177" s="1"/>
     </row>
-    <row r="178" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -20453,7 +20264,7 @@
       <c r="BM178" s="1"/>
       <c r="BN178" s="1"/>
     </row>
-    <row r="179" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -20519,7 +20330,7 @@
       <c r="BM179" s="1"/>
       <c r="BN179" s="1"/>
     </row>
-    <row r="180" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -20585,7 +20396,7 @@
       <c r="BM180" s="1"/>
       <c r="BN180" s="1"/>
     </row>
-    <row r="181" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -20651,7 +20462,7 @@
       <c r="BM181" s="1"/>
       <c r="BN181" s="1"/>
     </row>
-    <row r="182" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -20717,7 +20528,7 @@
       <c r="BM182" s="1"/>
       <c r="BN182" s="1"/>
     </row>
-    <row r="183" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -20783,7 +20594,7 @@
       <c r="BM183" s="1"/>
       <c r="BN183" s="1"/>
     </row>
-    <row r="184" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -20849,7 +20660,7 @@
       <c r="BM184" s="1"/>
       <c r="BN184" s="1"/>
     </row>
-    <row r="185" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -20915,7 +20726,7 @@
       <c r="BM185" s="1"/>
       <c r="BN185" s="1"/>
     </row>
-    <row r="186" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -20981,7 +20792,7 @@
       <c r="BM186" s="1"/>
       <c r="BN186" s="1"/>
     </row>
-    <row r="187" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -21047,7 +20858,7 @@
       <c r="BM187" s="1"/>
       <c r="BN187" s="1"/>
     </row>
-    <row r="188" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -21113,7 +20924,7 @@
       <c r="BM188" s="1"/>
       <c r="BN188" s="1"/>
     </row>
-    <row r="189" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -21179,7 +20990,7 @@
       <c r="BM189" s="1"/>
       <c r="BN189" s="1"/>
     </row>
-    <row r="190" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -21245,7 +21056,7 @@
       <c r="BM190" s="1"/>
       <c r="BN190" s="1"/>
     </row>
-    <row r="191" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -21311,7 +21122,7 @@
       <c r="BM191" s="1"/>
       <c r="BN191" s="1"/>
     </row>
-    <row r="192" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -21377,7 +21188,7 @@
       <c r="BM192" s="1"/>
       <c r="BN192" s="1"/>
     </row>
-    <row r="193" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -21443,7 +21254,7 @@
       <c r="BM193" s="1"/>
       <c r="BN193" s="1"/>
     </row>
-    <row r="194" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -21509,7 +21320,7 @@
       <c r="BM194" s="1"/>
       <c r="BN194" s="1"/>
     </row>
-    <row r="195" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -21575,7 +21386,7 @@
       <c r="BM195" s="1"/>
       <c r="BN195" s="1"/>
     </row>
-    <row r="196" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -21641,7 +21452,7 @@
       <c r="BM196" s="1"/>
       <c r="BN196" s="1"/>
     </row>
-    <row r="197" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -21707,7 +21518,7 @@
       <c r="BM197" s="1"/>
       <c r="BN197" s="1"/>
     </row>
-    <row r="198" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -21773,7 +21584,7 @@
       <c r="BM198" s="1"/>
       <c r="BN198" s="1"/>
     </row>
-    <row r="199" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -21839,7 +21650,7 @@
       <c r="BM199" s="1"/>
       <c r="BN199" s="1"/>
     </row>
-    <row r="200" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -21905,7 +21716,7 @@
       <c r="BM200" s="1"/>
       <c r="BN200" s="1"/>
     </row>
-    <row r="201" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -21971,7 +21782,7 @@
       <c r="BM201" s="1"/>
       <c r="BN201" s="1"/>
     </row>
-    <row r="202" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -22037,7 +21848,7 @@
       <c r="BM202" s="1"/>
       <c r="BN202" s="1"/>
     </row>
-    <row r="203" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -22103,7 +21914,7 @@
       <c r="BM203" s="1"/>
       <c r="BN203" s="1"/>
     </row>
-    <row r="204" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -22169,7 +21980,7 @@
       <c r="BM204" s="1"/>
       <c r="BN204" s="1"/>
     </row>
-    <row r="205" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -22235,7 +22046,7 @@
       <c r="BM205" s="1"/>
       <c r="BN205" s="1"/>
     </row>
-    <row r="206" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -22301,7 +22112,7 @@
       <c r="BM206" s="1"/>
       <c r="BN206" s="1"/>
     </row>
-    <row r="207" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -22367,7 +22178,7 @@
       <c r="BM207" s="1"/>
       <c r="BN207" s="1"/>
     </row>
-    <row r="208" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -22433,7 +22244,7 @@
       <c r="BM208" s="1"/>
       <c r="BN208" s="1"/>
     </row>
-    <row r="209" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -22499,7 +22310,7 @@
       <c r="BM209" s="1"/>
       <c r="BN209" s="1"/>
     </row>
-    <row r="210" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -22565,7 +22376,7 @@
       <c r="BM210" s="1"/>
       <c r="BN210" s="1"/>
     </row>
-    <row r="211" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -22631,7 +22442,7 @@
       <c r="BM211" s="1"/>
       <c r="BN211" s="1"/>
     </row>
-    <row r="212" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -22697,7 +22508,7 @@
       <c r="BM212" s="1"/>
       <c r="BN212" s="1"/>
     </row>
-    <row r="213" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -22763,7 +22574,7 @@
       <c r="BM213" s="1"/>
       <c r="BN213" s="1"/>
     </row>
-    <row r="214" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -22829,7 +22640,7 @@
       <c r="BM214" s="1"/>
       <c r="BN214" s="1"/>
     </row>
-    <row r="215" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -22895,7 +22706,7 @@
       <c r="BM215" s="1"/>
       <c r="BN215" s="1"/>
     </row>
-    <row r="216" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -22961,7 +22772,7 @@
       <c r="BM216" s="1"/>
       <c r="BN216" s="1"/>
     </row>
-    <row r="217" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -23027,7 +22838,7 @@
       <c r="BM217" s="1"/>
       <c r="BN217" s="1"/>
     </row>
-    <row r="218" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -23093,7 +22904,7 @@
       <c r="BM218" s="1"/>
       <c r="BN218" s="1"/>
     </row>
-    <row r="219" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -23159,7 +22970,7 @@
       <c r="BM219" s="1"/>
       <c r="BN219" s="1"/>
     </row>
-    <row r="220" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -23225,7 +23036,7 @@
       <c r="BM220" s="1"/>
       <c r="BN220" s="1"/>
     </row>
-    <row r="221" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -23291,7 +23102,7 @@
       <c r="BM221" s="1"/>
       <c r="BN221" s="1"/>
     </row>
-    <row r="222" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -23357,7 +23168,7 @@
       <c r="BM222" s="1"/>
       <c r="BN222" s="1"/>
     </row>
-    <row r="223" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -23423,7 +23234,7 @@
       <c r="BM223" s="1"/>
       <c r="BN223" s="1"/>
     </row>
-    <row r="224" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -23489,7 +23300,7 @@
       <c r="BM224" s="1"/>
       <c r="BN224" s="1"/>
     </row>
-    <row r="225" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -23555,7 +23366,7 @@
       <c r="BM225" s="1"/>
       <c r="BN225" s="1"/>
     </row>
-    <row r="226" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -23621,7 +23432,7 @@
       <c r="BM226" s="1"/>
       <c r="BN226" s="1"/>
     </row>
-    <row r="227" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -23687,7 +23498,7 @@
       <c r="BM227" s="1"/>
       <c r="BN227" s="1"/>
     </row>
-    <row r="228" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -23753,7 +23564,7 @@
       <c r="BM228" s="1"/>
       <c r="BN228" s="1"/>
     </row>
-    <row r="229" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -23819,7 +23630,7 @@
       <c r="BM229" s="1"/>
       <c r="BN229" s="1"/>
     </row>
-    <row r="230" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -23885,7 +23696,7 @@
       <c r="BM230" s="1"/>
       <c r="BN230" s="1"/>
     </row>
-    <row r="231" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -23951,7 +23762,7 @@
       <c r="BM231" s="1"/>
       <c r="BN231" s="1"/>
     </row>
-    <row r="232" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -24017,7 +23828,7 @@
       <c r="BM232" s="1"/>
       <c r="BN232" s="1"/>
     </row>
-    <row r="233" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -24083,7 +23894,7 @@
       <c r="BM233" s="1"/>
       <c r="BN233" s="1"/>
     </row>
-    <row r="234" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -24149,7 +23960,7 @@
       <c r="BM234" s="1"/>
       <c r="BN234" s="1"/>
     </row>
-    <row r="235" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -24215,7 +24026,7 @@
       <c r="BM235" s="1"/>
       <c r="BN235" s="1"/>
     </row>
-    <row r="236" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -24281,7 +24092,7 @@
       <c r="BM236" s="1"/>
       <c r="BN236" s="1"/>
     </row>
-    <row r="237" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -24347,7 +24158,7 @@
       <c r="BM237" s="1"/>
       <c r="BN237" s="1"/>
     </row>
-    <row r="238" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -24413,7 +24224,7 @@
       <c r="BM238" s="1"/>
       <c r="BN238" s="1"/>
     </row>
-    <row r="239" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -24479,7 +24290,7 @@
       <c r="BM239" s="1"/>
       <c r="BN239" s="1"/>
     </row>
-    <row r="240" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -24545,7 +24356,7 @@
       <c r="BM240" s="1"/>
       <c r="BN240" s="1"/>
     </row>
-    <row r="241" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -24611,7 +24422,7 @@
       <c r="BM241" s="1"/>
       <c r="BN241" s="1"/>
     </row>
-    <row r="242" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -24677,7 +24488,7 @@
       <c r="BM242" s="1"/>
       <c r="BN242" s="1"/>
     </row>
-    <row r="243" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -24743,7 +24554,7 @@
       <c r="BM243" s="1"/>
       <c r="BN243" s="1"/>
     </row>
-    <row r="244" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -24809,7 +24620,7 @@
       <c r="BM244" s="1"/>
       <c r="BN244" s="1"/>
     </row>
-    <row r="245" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -24875,7 +24686,7 @@
       <c r="BM245" s="1"/>
       <c r="BN245" s="1"/>
     </row>
-    <row r="246" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -24941,7 +24752,7 @@
       <c r="BM246" s="1"/>
       <c r="BN246" s="1"/>
     </row>
-    <row r="247" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -25007,7 +24818,7 @@
       <c r="BM247" s="1"/>
       <c r="BN247" s="1"/>
     </row>
-    <row r="248" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -25073,7 +24884,7 @@
       <c r="BM248" s="1"/>
       <c r="BN248" s="1"/>
     </row>
-    <row r="249" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -25139,7 +24950,7 @@
       <c r="BM249" s="1"/>
       <c r="BN249" s="1"/>
     </row>
-    <row r="250" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -25205,7 +25016,7 @@
       <c r="BM250" s="1"/>
       <c r="BN250" s="1"/>
     </row>
-    <row r="251" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -25271,7 +25082,7 @@
       <c r="BM251" s="1"/>
       <c r="BN251" s="1"/>
     </row>
-    <row r="252" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -25337,7 +25148,7 @@
       <c r="BM252" s="1"/>
       <c r="BN252" s="1"/>
     </row>
-    <row r="253" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -25403,7 +25214,7 @@
       <c r="BM253" s="1"/>
       <c r="BN253" s="1"/>
     </row>
-    <row r="254" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -25469,7 +25280,7 @@
       <c r="BM254" s="1"/>
       <c r="BN254" s="1"/>
     </row>
-    <row r="255" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -25535,7 +25346,7 @@
       <c r="BM255" s="1"/>
       <c r="BN255" s="1"/>
     </row>
-    <row r="256" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -25601,7 +25412,7 @@
       <c r="BM256" s="1"/>
       <c r="BN256" s="1"/>
     </row>
-    <row r="257" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -25667,7 +25478,7 @@
       <c r="BM257" s="1"/>
       <c r="BN257" s="1"/>
     </row>
-    <row r="258" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -25733,7 +25544,7 @@
       <c r="BM258" s="1"/>
       <c r="BN258" s="1"/>
     </row>
-    <row r="259" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -25799,7 +25610,7 @@
       <c r="BM259" s="1"/>
       <c r="BN259" s="1"/>
     </row>
-    <row r="260" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -25865,7 +25676,7 @@
       <c r="BM260" s="1"/>
       <c r="BN260" s="1"/>
     </row>
-    <row r="261" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -25931,7 +25742,7 @@
       <c r="BM261" s="1"/>
       <c r="BN261" s="1"/>
     </row>
-    <row r="262" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -25997,7 +25808,7 @@
       <c r="BM262" s="1"/>
       <c r="BN262" s="1"/>
     </row>
-    <row r="263" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -26063,7 +25874,7 @@
       <c r="BM263" s="1"/>
       <c r="BN263" s="1"/>
     </row>
-    <row r="264" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -26129,7 +25940,7 @@
       <c r="BM264" s="1"/>
       <c r="BN264" s="1"/>
     </row>
-    <row r="265" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -26195,7 +26006,7 @@
       <c r="BM265" s="1"/>
       <c r="BN265" s="1"/>
     </row>
-    <row r="266" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -26261,7 +26072,7 @@
       <c r="BM266" s="1"/>
       <c r="BN266" s="1"/>
     </row>
-    <row r="267" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -26327,7 +26138,7 @@
       <c r="BM267" s="1"/>
       <c r="BN267" s="1"/>
     </row>
-    <row r="268" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -26393,7 +26204,7 @@
       <c r="BM268" s="1"/>
       <c r="BN268" s="1"/>
     </row>
-    <row r="269" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -26459,7 +26270,7 @@
       <c r="BM269" s="1"/>
       <c r="BN269" s="1"/>
     </row>
-    <row r="270" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -26525,7 +26336,7 @@
       <c r="BM270" s="1"/>
       <c r="BN270" s="1"/>
     </row>
-    <row r="271" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -26591,7 +26402,7 @@
       <c r="BM271" s="1"/>
       <c r="BN271" s="1"/>
     </row>
-    <row r="272" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -26657,7 +26468,7 @@
       <c r="BM272" s="1"/>
       <c r="BN272" s="1"/>
     </row>
-    <row r="273" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -26723,7 +26534,7 @@
       <c r="BM273" s="1"/>
       <c r="BN273" s="1"/>
     </row>
-    <row r="274" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -26789,7 +26600,7 @@
       <c r="BM274" s="1"/>
       <c r="BN274" s="1"/>
     </row>
-    <row r="275" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -26855,7 +26666,7 @@
       <c r="BM275" s="1"/>
       <c r="BN275" s="1"/>
     </row>
-    <row r="276" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -26921,7 +26732,7 @@
       <c r="BM276" s="1"/>
       <c r="BN276" s="1"/>
     </row>
-    <row r="277" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -26987,7 +26798,7 @@
       <c r="BM277" s="1"/>
       <c r="BN277" s="1"/>
     </row>
-    <row r="278" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -27053,7 +26864,7 @@
       <c r="BM278" s="1"/>
       <c r="BN278" s="1"/>
     </row>
-    <row r="279" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -27119,7 +26930,7 @@
       <c r="BM279" s="1"/>
       <c r="BN279" s="1"/>
     </row>
-    <row r="280" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -27185,7 +26996,7 @@
       <c r="BM280" s="1"/>
       <c r="BN280" s="1"/>
     </row>
-    <row r="281" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -27251,7 +27062,7 @@
       <c r="BM281" s="1"/>
       <c r="BN281" s="1"/>
     </row>
-    <row r="282" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -27317,7 +27128,7 @@
       <c r="BM282" s="1"/>
       <c r="BN282" s="1"/>
     </row>
-    <row r="283" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -27383,7 +27194,7 @@
       <c r="BM283" s="1"/>
       <c r="BN283" s="1"/>
     </row>
-    <row r="284" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -27449,7 +27260,7 @@
       <c r="BM284" s="1"/>
       <c r="BN284" s="1"/>
     </row>
-    <row r="285" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -27515,7 +27326,7 @@
       <c r="BM285" s="1"/>
       <c r="BN285" s="1"/>
     </row>
-    <row r="286" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -27581,7 +27392,7 @@
       <c r="BM286" s="1"/>
       <c r="BN286" s="1"/>
     </row>
-    <row r="287" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -27647,7 +27458,7 @@
       <c r="BM287" s="1"/>
       <c r="BN287" s="1"/>
     </row>
-    <row r="288" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -27713,7 +27524,7 @@
       <c r="BM288" s="1"/>
       <c r="BN288" s="1"/>
     </row>
-    <row r="289" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -27779,7 +27590,7 @@
       <c r="BM289" s="1"/>
       <c r="BN289" s="1"/>
     </row>
-    <row r="290" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -27845,7 +27656,7 @@
       <c r="BM290" s="1"/>
       <c r="BN290" s="1"/>
     </row>
-    <row r="291" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -27911,7 +27722,7 @@
       <c r="BM291" s="1"/>
       <c r="BN291" s="1"/>
     </row>
-    <row r="292" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -27977,7 +27788,7 @@
       <c r="BM292" s="1"/>
       <c r="BN292" s="1"/>
     </row>
-    <row r="293" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -28043,7 +27854,7 @@
       <c r="BM293" s="1"/>
       <c r="BN293" s="1"/>
     </row>
-    <row r="294" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -28109,7 +27920,7 @@
       <c r="BM294" s="1"/>
       <c r="BN294" s="1"/>
     </row>
-    <row r="295" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -28175,7 +27986,7 @@
       <c r="BM295" s="1"/>
       <c r="BN295" s="1"/>
     </row>
-    <row r="296" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -28241,7 +28052,7 @@
       <c r="BM296" s="1"/>
       <c r="BN296" s="1"/>
     </row>
-    <row r="297" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -28307,7 +28118,7 @@
       <c r="BM297" s="1"/>
       <c r="BN297" s="1"/>
     </row>
-    <row r="298" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -28373,7 +28184,7 @@
       <c r="BM298" s="1"/>
       <c r="BN298" s="1"/>
     </row>
-    <row r="299" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -28439,7 +28250,7 @@
       <c r="BM299" s="1"/>
       <c r="BN299" s="1"/>
     </row>
-    <row r="300" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -28505,7 +28316,7 @@
       <c r="BM300" s="1"/>
       <c r="BN300" s="1"/>
     </row>
-    <row r="301" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -28571,7 +28382,7 @@
       <c r="BM301" s="1"/>
       <c r="BN301" s="1"/>
     </row>
-    <row r="302" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -28637,7 +28448,7 @@
       <c r="BM302" s="1"/>
       <c r="BN302" s="1"/>
     </row>
-    <row r="303" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -28703,7 +28514,7 @@
       <c r="BM303" s="1"/>
       <c r="BN303" s="1"/>
     </row>
-    <row r="304" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -28769,7 +28580,7 @@
       <c r="BM304" s="1"/>
       <c r="BN304" s="1"/>
     </row>
-    <row r="305" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -28835,7 +28646,7 @@
       <c r="BM305" s="1"/>
       <c r="BN305" s="1"/>
     </row>
-    <row r="306" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -28901,7 +28712,7 @@
       <c r="BM306" s="1"/>
       <c r="BN306" s="1"/>
     </row>
-    <row r="307" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -28967,7 +28778,7 @@
       <c r="BM307" s="1"/>
       <c r="BN307" s="1"/>
     </row>
-    <row r="308" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -29033,7 +28844,7 @@
       <c r="BM308" s="1"/>
       <c r="BN308" s="1"/>
     </row>
-    <row r="309" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -29099,7 +28910,7 @@
       <c r="BM309" s="1"/>
       <c r="BN309" s="1"/>
     </row>
-    <row r="310" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -29165,7 +28976,7 @@
       <c r="BM310" s="1"/>
       <c r="BN310" s="1"/>
     </row>
-    <row r="311" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -29231,7 +29042,7 @@
       <c r="BM311" s="1"/>
       <c r="BN311" s="1"/>
     </row>
-    <row r="312" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -29297,7 +29108,7 @@
       <c r="BM312" s="1"/>
       <c r="BN312" s="1"/>
     </row>
-    <row r="313" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -29363,7 +29174,7 @@
       <c r="BM313" s="1"/>
       <c r="BN313" s="1"/>
     </row>
-    <row r="314" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -29429,7 +29240,7 @@
       <c r="BM314" s="1"/>
       <c r="BN314" s="1"/>
     </row>
-    <row r="315" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -29495,7 +29306,7 @@
       <c r="BM315" s="1"/>
       <c r="BN315" s="1"/>
     </row>
-    <row r="316" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -29561,7 +29372,7 @@
       <c r="BM316" s="1"/>
       <c r="BN316" s="1"/>
     </row>
-    <row r="317" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -29627,7 +29438,7 @@
       <c r="BM317" s="1"/>
       <c r="BN317" s="1"/>
     </row>
-    <row r="318" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -29693,7 +29504,7 @@
       <c r="BM318" s="1"/>
       <c r="BN318" s="1"/>
     </row>
-    <row r="319" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -29759,7 +29570,7 @@
       <c r="BM319" s="1"/>
       <c r="BN319" s="1"/>
     </row>
-    <row r="320" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -29825,7 +29636,7 @@
       <c r="BM320" s="1"/>
       <c r="BN320" s="1"/>
     </row>
-    <row r="321" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -29891,7 +29702,7 @@
       <c r="BM321" s="1"/>
       <c r="BN321" s="1"/>
     </row>
-    <row r="322" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -29957,7 +29768,7 @@
       <c r="BM322" s="1"/>
       <c r="BN322" s="1"/>
     </row>
-    <row r="323" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -30023,7 +29834,7 @@
       <c r="BM323" s="1"/>
       <c r="BN323" s="1"/>
     </row>
-    <row r="324" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -30089,7 +29900,7 @@
       <c r="BM324" s="1"/>
       <c r="BN324" s="1"/>
     </row>
-    <row r="325" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -30155,7 +29966,7 @@
       <c r="BM325" s="1"/>
       <c r="BN325" s="1"/>
     </row>
-    <row r="326" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -30221,7 +30032,7 @@
       <c r="BM326" s="1"/>
       <c r="BN326" s="1"/>
     </row>
-    <row r="327" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -30287,7 +30098,7 @@
       <c r="BM327" s="1"/>
       <c r="BN327" s="1"/>
     </row>
-    <row r="328" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -30353,7 +30164,7 @@
       <c r="BM328" s="1"/>
       <c r="BN328" s="1"/>
     </row>
-    <row r="329" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -30419,7 +30230,7 @@
       <c r="BM329" s="1"/>
       <c r="BN329" s="1"/>
     </row>
-    <row r="330" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -30485,7 +30296,7 @@
       <c r="BM330" s="1"/>
       <c r="BN330" s="1"/>
     </row>
-    <row r="331" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -30551,7 +30362,7 @@
       <c r="BM331" s="1"/>
       <c r="BN331" s="1"/>
     </row>
-    <row r="332" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -30617,7 +30428,7 @@
       <c r="BM332" s="1"/>
       <c r="BN332" s="1"/>
     </row>
-    <row r="333" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -30683,7 +30494,7 @@
       <c r="BM333" s="1"/>
       <c r="BN333" s="1"/>
     </row>
-    <row r="334" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -30749,7 +30560,7 @@
       <c r="BM334" s="1"/>
       <c r="BN334" s="1"/>
     </row>
-    <row r="335" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -30815,7 +30626,7 @@
       <c r="BM335" s="1"/>
       <c r="BN335" s="1"/>
     </row>
-    <row r="336" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -30881,7 +30692,7 @@
       <c r="BM336" s="1"/>
       <c r="BN336" s="1"/>
     </row>
-    <row r="337" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -30947,7 +30758,7 @@
       <c r="BM337" s="1"/>
       <c r="BN337" s="1"/>
     </row>
-    <row r="338" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -31013,7 +30824,7 @@
       <c r="BM338" s="1"/>
       <c r="BN338" s="1"/>
     </row>
-    <row r="339" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -31079,7 +30890,7 @@
       <c r="BM339" s="1"/>
       <c r="BN339" s="1"/>
     </row>
-    <row r="340" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -31145,7 +30956,7 @@
       <c r="BM340" s="1"/>
       <c r="BN340" s="1"/>
     </row>
-    <row r="341" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -31211,7 +31022,7 @@
       <c r="BM341" s="1"/>
       <c r="BN341" s="1"/>
     </row>
-    <row r="342" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -31277,7 +31088,7 @@
       <c r="BM342" s="1"/>
       <c r="BN342" s="1"/>
     </row>
-    <row r="343" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -31343,7 +31154,7 @@
       <c r="BM343" s="1"/>
       <c r="BN343" s="1"/>
     </row>
-    <row r="344" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -31409,7 +31220,7 @@
       <c r="BM344" s="1"/>
       <c r="BN344" s="1"/>
     </row>
-    <row r="345" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -31475,7 +31286,7 @@
       <c r="BM345" s="1"/>
       <c r="BN345" s="1"/>
     </row>
-    <row r="346" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -31541,7 +31352,7 @@
       <c r="BM346" s="1"/>
       <c r="BN346" s="1"/>
     </row>
-    <row r="347" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -31607,7 +31418,7 @@
       <c r="BM347" s="1"/>
       <c r="BN347" s="1"/>
     </row>
-    <row r="348" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -31673,7 +31484,7 @@
       <c r="BM348" s="1"/>
       <c r="BN348" s="1"/>
     </row>
-    <row r="349" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -31739,7 +31550,7 @@
       <c r="BM349" s="1"/>
       <c r="BN349" s="1"/>
     </row>
-    <row r="350" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -31805,7 +31616,7 @@
       <c r="BM350" s="1"/>
       <c r="BN350" s="1"/>
     </row>
-    <row r="351" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -31871,7 +31682,7 @@
       <c r="BM351" s="1"/>
       <c r="BN351" s="1"/>
     </row>
-    <row r="352" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -31937,7 +31748,7 @@
       <c r="BM352" s="1"/>
       <c r="BN352" s="1"/>
     </row>
-    <row r="353" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -32003,7 +31814,7 @@
       <c r="BM353" s="1"/>
       <c r="BN353" s="1"/>
     </row>
-    <row r="354" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -32069,7 +31880,7 @@
       <c r="BM354" s="1"/>
       <c r="BN354" s="1"/>
     </row>
-    <row r="355" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -32135,7 +31946,7 @@
       <c r="BM355" s="1"/>
       <c r="BN355" s="1"/>
     </row>
-    <row r="356" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -32201,7 +32012,7 @@
       <c r="BM356" s="1"/>
       <c r="BN356" s="1"/>
     </row>
-    <row r="357" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -32267,7 +32078,7 @@
       <c r="BM357" s="1"/>
       <c r="BN357" s="1"/>
     </row>
-    <row r="358" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -32333,7 +32144,7 @@
       <c r="BM358" s="1"/>
       <c r="BN358" s="1"/>
     </row>
-    <row r="359" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -32399,7 +32210,7 @@
       <c r="BM359" s="1"/>
       <c r="BN359" s="1"/>
     </row>
-    <row r="360" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -32465,7 +32276,7 @@
       <c r="BM360" s="1"/>
       <c r="BN360" s="1"/>
     </row>
-    <row r="361" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -32531,7 +32342,7 @@
       <c r="BM361" s="1"/>
       <c r="BN361" s="1"/>
     </row>
-    <row r="362" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -32597,7 +32408,7 @@
       <c r="BM362" s="1"/>
       <c r="BN362" s="1"/>
     </row>
-    <row r="363" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -32663,7 +32474,7 @@
       <c r="BM363" s="1"/>
       <c r="BN363" s="1"/>
     </row>
-    <row r="364" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -32729,7 +32540,7 @@
       <c r="BM364" s="1"/>
       <c r="BN364" s="1"/>
     </row>
-    <row r="365" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -32795,7 +32606,7 @@
       <c r="BM365" s="1"/>
       <c r="BN365" s="1"/>
     </row>
-    <row r="366" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -32861,7 +32672,7 @@
       <c r="BM366" s="1"/>
       <c r="BN366" s="1"/>
     </row>
-    <row r="367" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -32927,7 +32738,7 @@
       <c r="BM367" s="1"/>
       <c r="BN367" s="1"/>
     </row>
-    <row r="368" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -32993,7 +32804,7 @@
       <c r="BM368" s="1"/>
       <c r="BN368" s="1"/>
     </row>
-    <row r="369" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -33059,7 +32870,7 @@
       <c r="BM369" s="1"/>
       <c r="BN369" s="1"/>
     </row>
-    <row r="370" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -33125,7 +32936,7 @@
       <c r="BM370" s="1"/>
       <c r="BN370" s="1"/>
     </row>
-    <row r="371" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -33191,7 +33002,7 @@
       <c r="BM371" s="1"/>
       <c r="BN371" s="1"/>
     </row>
-    <row r="372" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -33257,7 +33068,7 @@
       <c r="BM372" s="1"/>
       <c r="BN372" s="1"/>
     </row>
-    <row r="373" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -33323,7 +33134,7 @@
       <c r="BM373" s="1"/>
       <c r="BN373" s="1"/>
     </row>
-    <row r="374" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -33389,7 +33200,7 @@
       <c r="BM374" s="1"/>
       <c r="BN374" s="1"/>
     </row>
-    <row r="375" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -33455,7 +33266,7 @@
       <c r="BM375" s="1"/>
       <c r="BN375" s="1"/>
     </row>
-    <row r="376" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -33521,7 +33332,7 @@
       <c r="BM376" s="1"/>
       <c r="BN376" s="1"/>
     </row>
-    <row r="377" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -33587,7 +33398,7 @@
       <c r="BM377" s="1"/>
       <c r="BN377" s="1"/>
     </row>
-    <row r="378" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -33653,7 +33464,7 @@
       <c r="BM378" s="1"/>
       <c r="BN378" s="1"/>
     </row>
-    <row r="379" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -33719,7 +33530,7 @@
       <c r="BM379" s="1"/>
       <c r="BN379" s="1"/>
     </row>
-    <row r="380" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -33785,7 +33596,7 @@
       <c r="BM380" s="1"/>
       <c r="BN380" s="1"/>
     </row>
-    <row r="381" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -33851,7 +33662,7 @@
       <c r="BM381" s="1"/>
       <c r="BN381" s="1"/>
     </row>
-    <row r="382" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -33917,7 +33728,7 @@
       <c r="BM382" s="1"/>
       <c r="BN382" s="1"/>
     </row>
-    <row r="383" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -33983,7 +33794,7 @@
       <c r="BM383" s="1"/>
       <c r="BN383" s="1"/>
     </row>
-    <row r="384" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -34049,7 +33860,7 @@
       <c r="BM384" s="1"/>
       <c r="BN384" s="1"/>
     </row>
-    <row r="385" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -34115,7 +33926,7 @@
       <c r="BM385" s="1"/>
       <c r="BN385" s="1"/>
     </row>
-    <row r="386" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -34181,7 +33992,7 @@
       <c r="BM386" s="1"/>
       <c r="BN386" s="1"/>
     </row>
-    <row r="387" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -34247,7 +34058,7 @@
       <c r="BM387" s="1"/>
       <c r="BN387" s="1"/>
     </row>
-    <row r="388" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -34313,7 +34124,7 @@
       <c r="BM388" s="1"/>
       <c r="BN388" s="1"/>
     </row>
-    <row r="389" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -34379,7 +34190,7 @@
       <c r="BM389" s="1"/>
       <c r="BN389" s="1"/>
     </row>
-    <row r="390" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -34445,7 +34256,7 @@
       <c r="BM390" s="1"/>
       <c r="BN390" s="1"/>
     </row>
-    <row r="391" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -34511,7 +34322,7 @@
       <c r="BM391" s="1"/>
       <c r="BN391" s="1"/>
     </row>
-    <row r="392" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -34577,7 +34388,7 @@
       <c r="BM392" s="1"/>
       <c r="BN392" s="1"/>
     </row>
-    <row r="393" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -34643,7 +34454,7 @@
       <c r="BM393" s="1"/>
       <c r="BN393" s="1"/>
     </row>
-    <row r="394" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -34709,7 +34520,7 @@
       <c r="BM394" s="1"/>
       <c r="BN394" s="1"/>
     </row>
-    <row r="395" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -34775,7 +34586,7 @@
       <c r="BM395" s="1"/>
       <c r="BN395" s="1"/>
     </row>
-    <row r="396" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -34841,7 +34652,7 @@
       <c r="BM396" s="1"/>
       <c r="BN396" s="1"/>
     </row>
-    <row r="397" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -34907,7 +34718,7 @@
       <c r="BM397" s="1"/>
       <c r="BN397" s="1"/>
     </row>
-    <row r="398" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -34973,7 +34784,7 @@
       <c r="BM398" s="1"/>
       <c r="BN398" s="1"/>
     </row>
-    <row r="399" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -35039,7 +34850,7 @@
       <c r="BM399" s="1"/>
       <c r="BN399" s="1"/>
     </row>
-    <row r="400" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -35105,7 +34916,7 @@
       <c r="BM400" s="1"/>
       <c r="BN400" s="1"/>
     </row>
-    <row r="401" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -35171,7 +34982,7 @@
       <c r="BM401" s="1"/>
       <c r="BN401" s="1"/>
     </row>
-    <row r="402" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -35237,7 +35048,7 @@
       <c r="BM402" s="1"/>
       <c r="BN402" s="1"/>
     </row>
-    <row r="403" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -35303,7 +35114,7 @@
       <c r="BM403" s="1"/>
       <c r="BN403" s="1"/>
     </row>
-    <row r="404" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -35369,7 +35180,7 @@
       <c r="BM404" s="1"/>
       <c r="BN404" s="1"/>
     </row>
-    <row r="405" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -35435,7 +35246,7 @@
       <c r="BM405" s="1"/>
       <c r="BN405" s="1"/>
     </row>
-    <row r="406" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -35501,7 +35312,7 @@
       <c r="BM406" s="1"/>
       <c r="BN406" s="1"/>
     </row>
-    <row r="407" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -35567,7 +35378,7 @@
       <c r="BM407" s="1"/>
       <c r="BN407" s="1"/>
     </row>
-    <row r="408" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -35633,7 +35444,7 @@
       <c r="BM408" s="1"/>
       <c r="BN408" s="1"/>
     </row>
-    <row r="409" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -35699,7 +35510,7 @@
       <c r="BM409" s="1"/>
       <c r="BN409" s="1"/>
     </row>
-    <row r="410" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -35765,7 +35576,7 @@
       <c r="BM410" s="1"/>
       <c r="BN410" s="1"/>
     </row>
-    <row r="411" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -35831,7 +35642,7 @@
       <c r="BM411" s="1"/>
       <c r="BN411" s="1"/>
     </row>
-    <row r="412" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -35897,7 +35708,7 @@
       <c r="BM412" s="1"/>
       <c r="BN412" s="1"/>
     </row>
-    <row r="413" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -35963,7 +35774,7 @@
       <c r="BM413" s="1"/>
       <c r="BN413" s="1"/>
     </row>
-    <row r="414" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -36029,7 +35840,7 @@
       <c r="BM414" s="1"/>
       <c r="BN414" s="1"/>
     </row>
-    <row r="415" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -36095,7 +35906,7 @@
       <c r="BM415" s="1"/>
       <c r="BN415" s="1"/>
     </row>
-    <row r="416" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -36161,7 +35972,7 @@
       <c r="BM416" s="1"/>
       <c r="BN416" s="1"/>
     </row>
-    <row r="417" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -36227,7 +36038,7 @@
       <c r="BM417" s="1"/>
       <c r="BN417" s="1"/>
     </row>
-    <row r="418" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -36293,7 +36104,7 @@
       <c r="BM418" s="1"/>
       <c r="BN418" s="1"/>
     </row>
-    <row r="419" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -36359,7 +36170,7 @@
       <c r="BM419" s="1"/>
       <c r="BN419" s="1"/>
     </row>
-    <row r="420" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -36425,7 +36236,7 @@
       <c r="BM420" s="1"/>
       <c r="BN420" s="1"/>
     </row>
-    <row r="421" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -36491,7 +36302,7 @@
       <c r="BM421" s="1"/>
       <c r="BN421" s="1"/>
     </row>
-    <row r="422" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -36557,7 +36368,7 @@
       <c r="BM422" s="1"/>
       <c r="BN422" s="1"/>
     </row>
-    <row r="423" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -36623,7 +36434,7 @@
       <c r="BM423" s="1"/>
       <c r="BN423" s="1"/>
     </row>
-    <row r="424" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -36689,7 +36500,7 @@
       <c r="BM424" s="1"/>
       <c r="BN424" s="1"/>
     </row>
-    <row r="425" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -36755,7 +36566,7 @@
       <c r="BM425" s="1"/>
       <c r="BN425" s="1"/>
     </row>
-    <row r="426" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -36821,7 +36632,7 @@
       <c r="BM426" s="1"/>
       <c r="BN426" s="1"/>
     </row>
-    <row r="427" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -36887,7 +36698,7 @@
       <c r="BM427" s="1"/>
       <c r="BN427" s="1"/>
     </row>
-    <row r="428" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -36953,7 +36764,7 @@
       <c r="BM428" s="1"/>
       <c r="BN428" s="1"/>
     </row>
-    <row r="429" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -37019,7 +36830,7 @@
       <c r="BM429" s="1"/>
       <c r="BN429" s="1"/>
     </row>
-    <row r="430" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -37085,7 +36896,7 @@
       <c r="BM430" s="1"/>
       <c r="BN430" s="1"/>
     </row>
-    <row r="431" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -37151,7 +36962,7 @@
       <c r="BM431" s="1"/>
       <c r="BN431" s="1"/>
     </row>
-    <row r="432" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -37217,7 +37028,7 @@
       <c r="BM432" s="1"/>
       <c r="BN432" s="1"/>
     </row>
-    <row r="433" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -37283,7 +37094,7 @@
       <c r="BM433" s="1"/>
       <c r="BN433" s="1"/>
     </row>
-    <row r="434" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -37349,7 +37160,7 @@
       <c r="BM434" s="1"/>
       <c r="BN434" s="1"/>
     </row>
-    <row r="435" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -37415,7 +37226,7 @@
       <c r="BM435" s="1"/>
       <c r="BN435" s="1"/>
     </row>
-    <row r="436" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -37481,7 +37292,7 @@
       <c r="BM436" s="1"/>
       <c r="BN436" s="1"/>
     </row>
-    <row r="437" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -37547,7 +37358,7 @@
       <c r="BM437" s="1"/>
       <c r="BN437" s="1"/>
     </row>
-    <row r="438" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -37613,7 +37424,7 @@
       <c r="BM438" s="1"/>
       <c r="BN438" s="1"/>
     </row>
-    <row r="439" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -37679,7 +37490,7 @@
       <c r="BM439" s="1"/>
       <c r="BN439" s="1"/>
     </row>
-    <row r="440" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -37745,7 +37556,7 @@
       <c r="BM440" s="1"/>
       <c r="BN440" s="1"/>
     </row>
-    <row r="441" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -37811,7 +37622,7 @@
       <c r="BM441" s="1"/>
       <c r="BN441" s="1"/>
     </row>
-    <row r="442" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -37877,7 +37688,7 @@
       <c r="BM442" s="1"/>
       <c r="BN442" s="1"/>
     </row>
-    <row r="443" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -37943,7 +37754,7 @@
       <c r="BM443" s="1"/>
       <c r="BN443" s="1"/>
     </row>
-    <row r="444" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -38009,7 +37820,7 @@
       <c r="BM444" s="1"/>
       <c r="BN444" s="1"/>
     </row>
-    <row r="445" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -38075,7 +37886,7 @@
       <c r="BM445" s="1"/>
       <c r="BN445" s="1"/>
     </row>
-    <row r="446" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -38141,7 +37952,7 @@
       <c r="BM446" s="1"/>
       <c r="BN446" s="1"/>
     </row>
-    <row r="447" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -38207,7 +38018,7 @@
       <c r="BM447" s="1"/>
       <c r="BN447" s="1"/>
     </row>
-    <row r="448" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -38273,7 +38084,7 @@
       <c r="BM448" s="1"/>
       <c r="BN448" s="1"/>
     </row>
-    <row r="449" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -38339,7 +38150,7 @@
       <c r="BM449" s="1"/>
       <c r="BN449" s="1"/>
     </row>
-    <row r="450" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -38405,7 +38216,7 @@
       <c r="BM450" s="1"/>
       <c r="BN450" s="1"/>
     </row>
-    <row r="451" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -38471,7 +38282,7 @@
       <c r="BM451" s="1"/>
       <c r="BN451" s="1"/>
     </row>
-    <row r="452" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -38537,7 +38348,7 @@
       <c r="BM452" s="1"/>
       <c r="BN452" s="1"/>
     </row>
-    <row r="453" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -38603,7 +38414,7 @@
       <c r="BM453" s="1"/>
       <c r="BN453" s="1"/>
     </row>
-    <row r="454" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -38669,7 +38480,7 @@
       <c r="BM454" s="1"/>
       <c r="BN454" s="1"/>
     </row>
-    <row r="455" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -38735,7 +38546,7 @@
       <c r="BM455" s="1"/>
       <c r="BN455" s="1"/>
     </row>
-    <row r="456" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -38801,7 +38612,7 @@
       <c r="BM456" s="1"/>
       <c r="BN456" s="1"/>
     </row>
-    <row r="457" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -38867,7 +38678,7 @@
       <c r="BM457" s="1"/>
       <c r="BN457" s="1"/>
     </row>
-    <row r="458" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -38933,7 +38744,7 @@
       <c r="BM458" s="1"/>
       <c r="BN458" s="1"/>
     </row>
-    <row r="459" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -38999,7 +38810,7 @@
       <c r="BM459" s="1"/>
       <c r="BN459" s="1"/>
     </row>
-    <row r="460" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -39065,7 +38876,7 @@
       <c r="BM460" s="1"/>
       <c r="BN460" s="1"/>
     </row>
-    <row r="461" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -39131,7 +38942,7 @@
       <c r="BM461" s="1"/>
       <c r="BN461" s="1"/>
     </row>
-    <row r="462" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -39197,7 +39008,7 @@
       <c r="BM462" s="1"/>
       <c r="BN462" s="1"/>
     </row>
-    <row r="463" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -39263,7 +39074,7 @@
       <c r="BM463" s="1"/>
       <c r="BN463" s="1"/>
     </row>
-    <row r="464" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -39329,7 +39140,7 @@
       <c r="BM464" s="1"/>
       <c r="BN464" s="1"/>
     </row>
-    <row r="465" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -39395,7 +39206,7 @@
       <c r="BM465" s="1"/>
       <c r="BN465" s="1"/>
     </row>
-    <row r="466" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -39461,7 +39272,7 @@
       <c r="BM466" s="1"/>
       <c r="BN466" s="1"/>
     </row>
-    <row r="467" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -39527,7 +39338,7 @@
       <c r="BM467" s="1"/>
       <c r="BN467" s="1"/>
     </row>
-    <row r="468" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -39593,7 +39404,7 @@
       <c r="BM468" s="1"/>
       <c r="BN468" s="1"/>
     </row>
-    <row r="469" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -39659,7 +39470,7 @@
       <c r="BM469" s="1"/>
       <c r="BN469" s="1"/>
     </row>
-    <row r="470" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -39725,7 +39536,7 @@
       <c r="BM470" s="1"/>
       <c r="BN470" s="1"/>
     </row>
-    <row r="471" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -39791,7 +39602,7 @@
       <c r="BM471" s="1"/>
       <c r="BN471" s="1"/>
     </row>
-    <row r="472" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -39857,7 +39668,7 @@
       <c r="BM472" s="1"/>
       <c r="BN472" s="1"/>
     </row>
-    <row r="473" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -39923,7 +39734,7 @@
       <c r="BM473" s="1"/>
       <c r="BN473" s="1"/>
     </row>
-    <row r="474" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -39989,7 +39800,7 @@
       <c r="BM474" s="1"/>
       <c r="BN474" s="1"/>
     </row>
-    <row r="475" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -40055,7 +39866,7 @@
       <c r="BM475" s="1"/>
       <c r="BN475" s="1"/>
     </row>
-    <row r="476" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -40121,7 +39932,7 @@
       <c r="BM476" s="1"/>
       <c r="BN476" s="1"/>
     </row>
-    <row r="477" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -40187,7 +39998,7 @@
       <c r="BM477" s="1"/>
       <c r="BN477" s="1"/>
     </row>
-    <row r="478" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -40253,7 +40064,7 @@
       <c r="BM478" s="1"/>
       <c r="BN478" s="1"/>
     </row>
-    <row r="479" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -40319,7 +40130,7 @@
       <c r="BM479" s="1"/>
       <c r="BN479" s="1"/>
     </row>
-    <row r="480" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -40385,7 +40196,7 @@
       <c r="BM480" s="1"/>
       <c r="BN480" s="1"/>
     </row>
-    <row r="481" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -40451,7 +40262,7 @@
       <c r="BM481" s="1"/>
       <c r="BN481" s="1"/>
     </row>
-    <row r="482" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -40517,7 +40328,7 @@
       <c r="BM482" s="1"/>
       <c r="BN482" s="1"/>
     </row>
-    <row r="483" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -40583,7 +40394,7 @@
       <c r="BM483" s="1"/>
       <c r="BN483" s="1"/>
     </row>
-    <row r="484" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -40649,7 +40460,7 @@
       <c r="BM484" s="1"/>
       <c r="BN484" s="1"/>
     </row>
-    <row r="485" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -40715,7 +40526,7 @@
       <c r="BM485" s="1"/>
       <c r="BN485" s="1"/>
     </row>
-    <row r="486" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -40781,7 +40592,7 @@
       <c r="BM486" s="1"/>
       <c r="BN486" s="1"/>
     </row>
-    <row r="487" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -40847,7 +40658,7 @@
       <c r="BM487" s="1"/>
       <c r="BN487" s="1"/>
     </row>
-    <row r="488" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -40913,7 +40724,7 @@
       <c r="BM488" s="1"/>
       <c r="BN488" s="1"/>
     </row>
-    <row r="489" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -40979,7 +40790,7 @@
       <c r="BM489" s="1"/>
       <c r="BN489" s="1"/>
     </row>
-    <row r="490" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -41045,7 +40856,7 @@
       <c r="BM490" s="1"/>
       <c r="BN490" s="1"/>
     </row>
-    <row r="491" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -41111,7 +40922,7 @@
       <c r="BM491" s="1"/>
       <c r="BN491" s="1"/>
     </row>
-    <row r="492" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -41177,7 +40988,7 @@
       <c r="BM492" s="1"/>
       <c r="BN492" s="1"/>
     </row>
-    <row r="493" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -41243,7 +41054,7 @@
       <c r="BM493" s="1"/>
       <c r="BN493" s="1"/>
     </row>
-    <row r="494" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -41309,7 +41120,7 @@
       <c r="BM494" s="1"/>
       <c r="BN494" s="1"/>
     </row>
-    <row r="495" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -41375,7 +41186,7 @@
       <c r="BM495" s="1"/>
       <c r="BN495" s="1"/>
     </row>
-    <row r="496" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -41441,7 +41252,7 @@
       <c r="BM496" s="1"/>
       <c r="BN496" s="1"/>
     </row>
-    <row r="497" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -41507,7 +41318,7 @@
       <c r="BM497" s="1"/>
       <c r="BN497" s="1"/>
     </row>
-    <row r="498" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -41573,7 +41384,7 @@
       <c r="BM498" s="1"/>
       <c r="BN498" s="1"/>
     </row>
-    <row r="499" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -41639,7 +41450,7 @@
       <c r="BM499" s="1"/>
       <c r="BN499" s="1"/>
     </row>
-    <row r="500" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -41705,7 +41516,7 @@
       <c r="BM500" s="1"/>
       <c r="BN500" s="1"/>
     </row>
-    <row r="501" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -41771,7 +41582,7 @@
       <c r="BM501" s="1"/>
       <c r="BN501" s="1"/>
     </row>
-    <row r="502" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -41837,7 +41648,7 @@
       <c r="BM502" s="1"/>
       <c r="BN502" s="1"/>
     </row>
-    <row r="503" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -41903,7 +41714,7 @@
       <c r="BM503" s="1"/>
       <c r="BN503" s="1"/>
     </row>
-    <row r="504" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -41969,7 +41780,7 @@
       <c r="BM504" s="1"/>
       <c r="BN504" s="1"/>
     </row>
-    <row r="505" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -42035,7 +41846,7 @@
       <c r="BM505" s="1"/>
       <c r="BN505" s="1"/>
     </row>
-    <row r="506" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -42101,7 +41912,7 @@
       <c r="BM506" s="1"/>
       <c r="BN506" s="1"/>
     </row>
-    <row r="507" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -42167,7 +41978,7 @@
       <c r="BM507" s="1"/>
       <c r="BN507" s="1"/>
     </row>
-    <row r="508" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -42233,7 +42044,7 @@
       <c r="BM508" s="1"/>
       <c r="BN508" s="1"/>
     </row>
-    <row r="509" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -42299,7 +42110,7 @@
       <c r="BM509" s="1"/>
       <c r="BN509" s="1"/>
     </row>
-    <row r="510" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -42365,7 +42176,7 @@
       <c r="BM510" s="1"/>
       <c r="BN510" s="1"/>
     </row>
-    <row r="511" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -42431,7 +42242,7 @@
       <c r="BM511" s="1"/>
       <c r="BN511" s="1"/>
     </row>
-    <row r="512" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -42497,7 +42308,7 @@
       <c r="BM512" s="1"/>
       <c r="BN512" s="1"/>
     </row>
-    <row r="513" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -42563,7 +42374,7 @@
       <c r="BM513" s="1"/>
       <c r="BN513" s="1"/>
     </row>
-    <row r="514" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -42629,7 +42440,7 @@
       <c r="BM514" s="1"/>
       <c r="BN514" s="1"/>
     </row>
-    <row r="515" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -42695,7 +42506,7 @@
       <c r="BM515" s="1"/>
       <c r="BN515" s="1"/>
     </row>
-    <row r="516" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -42761,7 +42572,7 @@
       <c r="BM516" s="1"/>
       <c r="BN516" s="1"/>
     </row>
-    <row r="517" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -42827,7 +42638,7 @@
       <c r="BM517" s="1"/>
       <c r="BN517" s="1"/>
     </row>
-    <row r="518" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -42893,7 +42704,7 @@
       <c r="BM518" s="1"/>
       <c r="BN518" s="1"/>
     </row>
-    <row r="519" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -42959,7 +42770,7 @@
       <c r="BM519" s="1"/>
       <c r="BN519" s="1"/>
     </row>
-    <row r="520" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -43025,7 +42836,7 @@
       <c r="BM520" s="1"/>
       <c r="BN520" s="1"/>
     </row>
-    <row r="521" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -43091,7 +42902,7 @@
       <c r="BM521" s="1"/>
       <c r="BN521" s="1"/>
     </row>
-    <row r="522" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -43157,7 +42968,7 @@
       <c r="BM522" s="1"/>
       <c r="BN522" s="1"/>
     </row>
-    <row r="523" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -43223,7 +43034,7 @@
       <c r="BM523" s="1"/>
       <c r="BN523" s="1"/>
     </row>
-    <row r="524" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -43289,7 +43100,7 @@
       <c r="BM524" s="1"/>
       <c r="BN524" s="1"/>
     </row>
-    <row r="525" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -43355,7 +43166,7 @@
       <c r="BM525" s="1"/>
       <c r="BN525" s="1"/>
     </row>
-    <row r="526" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -43421,7 +43232,7 @@
       <c r="BM526" s="1"/>
       <c r="BN526" s="1"/>
     </row>
-    <row r="527" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -43487,7 +43298,7 @@
       <c r="BM527" s="1"/>
       <c r="BN527" s="1"/>
     </row>
-    <row r="528" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -43553,7 +43364,7 @@
       <c r="BM528" s="1"/>
       <c r="BN528" s="1"/>
     </row>
-    <row r="529" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -43619,7 +43430,7 @@
       <c r="BM529" s="1"/>
       <c r="BN529" s="1"/>
     </row>
-    <row r="530" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -43685,7 +43496,7 @@
       <c r="BM530" s="1"/>
       <c r="BN530" s="1"/>
     </row>
-    <row r="531" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -43751,7 +43562,7 @@
       <c r="BM531" s="1"/>
       <c r="BN531" s="1"/>
     </row>
-    <row r="532" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -43817,7 +43628,7 @@
       <c r="BM532" s="1"/>
       <c r="BN532" s="1"/>
     </row>
-    <row r="533" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -43883,7 +43694,7 @@
       <c r="BM533" s="1"/>
       <c r="BN533" s="1"/>
     </row>
-    <row r="534" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -43949,7 +43760,7 @@
       <c r="BM534" s="1"/>
       <c r="BN534" s="1"/>
     </row>
-    <row r="535" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -44015,7 +43826,7 @@
       <c r="BM535" s="1"/>
       <c r="BN535" s="1"/>
     </row>
-    <row r="536" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -44081,7 +43892,7 @@
       <c r="BM536" s="1"/>
       <c r="BN536" s="1"/>
     </row>
-    <row r="537" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -44147,7 +43958,7 @@
       <c r="BM537" s="1"/>
       <c r="BN537" s="1"/>
     </row>
-    <row r="538" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -44213,7 +44024,7 @@
       <c r="BM538" s="1"/>
       <c r="BN538" s="1"/>
     </row>
-    <row r="539" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -44279,7 +44090,7 @@
       <c r="BM539" s="1"/>
       <c r="BN539" s="1"/>
     </row>
-    <row r="540" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -44345,7 +44156,7 @@
       <c r="BM540" s="1"/>
       <c r="BN540" s="1"/>
     </row>
-    <row r="541" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -44411,7 +44222,7 @@
       <c r="BM541" s="1"/>
       <c r="BN541" s="1"/>
     </row>
-    <row r="542" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -44477,7 +44288,7 @@
       <c r="BM542" s="1"/>
       <c r="BN542" s="1"/>
     </row>
-    <row r="543" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -44543,7 +44354,7 @@
       <c r="BM543" s="1"/>
       <c r="BN543" s="1"/>
     </row>
-    <row r="544" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -44609,7 +44420,7 @@
       <c r="BM544" s="1"/>
       <c r="BN544" s="1"/>
     </row>
-    <row r="545" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -44675,7 +44486,7 @@
       <c r="BM545" s="1"/>
       <c r="BN545" s="1"/>
     </row>
-    <row r="546" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -44741,7 +44552,7 @@
       <c r="BM546" s="1"/>
       <c r="BN546" s="1"/>
     </row>
-    <row r="547" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -44807,7 +44618,7 @@
       <c r="BM547" s="1"/>
       <c r="BN547" s="1"/>
     </row>
-    <row r="548" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -44873,7 +44684,7 @@
       <c r="BM548" s="1"/>
       <c r="BN548" s="1"/>
     </row>
-    <row r="549" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -44939,7 +44750,7 @@
       <c r="BM549" s="1"/>
       <c r="BN549" s="1"/>
     </row>
-    <row r="550" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -45005,7 +44816,7 @@
       <c r="BM550" s="1"/>
       <c r="BN550" s="1"/>
     </row>
-    <row r="551" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -45071,7 +44882,7 @@
       <c r="BM551" s="1"/>
       <c r="BN551" s="1"/>
     </row>
-    <row r="552" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -45137,7 +44948,7 @@
       <c r="BM552" s="1"/>
       <c r="BN552" s="1"/>
     </row>
-    <row r="553" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -45203,7 +45014,7 @@
       <c r="BM553" s="1"/>
       <c r="BN553" s="1"/>
     </row>
-    <row r="554" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -45269,7 +45080,7 @@
       <c r="BM554" s="1"/>
       <c r="BN554" s="1"/>
     </row>
-    <row r="555" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -45335,7 +45146,7 @@
       <c r="BM555" s="1"/>
       <c r="BN555" s="1"/>
     </row>
-    <row r="556" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -45401,7 +45212,7 @@
       <c r="BM556" s="1"/>
       <c r="BN556" s="1"/>
     </row>
-    <row r="557" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -45467,7 +45278,7 @@
       <c r="BM557" s="1"/>
       <c r="BN557" s="1"/>
     </row>
-    <row r="558" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -45533,7 +45344,7 @@
       <c r="BM558" s="1"/>
       <c r="BN558" s="1"/>
     </row>
-    <row r="559" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -45599,7 +45410,7 @@
       <c r="BM559" s="1"/>
       <c r="BN559" s="1"/>
     </row>
-    <row r="560" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -45665,7 +45476,7 @@
       <c r="BM560" s="1"/>
       <c r="BN560" s="1"/>
     </row>
-    <row r="561" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -45731,7 +45542,7 @@
       <c r="BM561" s="1"/>
       <c r="BN561" s="1"/>
     </row>
-    <row r="562" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -45797,7 +45608,7 @@
       <c r="BM562" s="1"/>
       <c r="BN562" s="1"/>
     </row>
-    <row r="563" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -45863,7 +45674,7 @@
       <c r="BM563" s="1"/>
       <c r="BN563" s="1"/>
     </row>
-    <row r="564" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -45929,7 +45740,7 @@
       <c r="BM564" s="1"/>
       <c r="BN564" s="1"/>
     </row>
-    <row r="565" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -45995,7 +45806,7 @@
       <c r="BM565" s="1"/>
       <c r="BN565" s="1"/>
     </row>
-    <row r="566" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -46061,7 +45872,7 @@
       <c r="BM566" s="1"/>
       <c r="BN566" s="1"/>
     </row>
-    <row r="567" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -46127,7 +45938,7 @@
       <c r="BM567" s="1"/>
       <c r="BN567" s="1"/>
     </row>
-    <row r="568" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -46193,7 +46004,7 @@
       <c r="BM568" s="1"/>
       <c r="BN568" s="1"/>
     </row>
-    <row r="569" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -46259,7 +46070,7 @@
       <c r="BM569" s="1"/>
       <c r="BN569" s="1"/>
     </row>
-    <row r="570" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -46325,7 +46136,7 @@
       <c r="BM570" s="1"/>
       <c r="BN570" s="1"/>
     </row>
-    <row r="571" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -46391,7 +46202,7 @@
       <c r="BM571" s="1"/>
       <c r="BN571" s="1"/>
     </row>
-    <row r="572" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -46457,7 +46268,7 @@
       <c r="BM572" s="1"/>
       <c r="BN572" s="1"/>
     </row>
-    <row r="573" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -46523,7 +46334,7 @@
       <c r="BM573" s="1"/>
       <c r="BN573" s="1"/>
     </row>
-    <row r="574" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -46589,7 +46400,7 @@
       <c r="BM574" s="1"/>
       <c r="BN574" s="1"/>
     </row>
-    <row r="575" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -46655,7 +46466,7 @@
       <c r="BM575" s="1"/>
       <c r="BN575" s="1"/>
     </row>
-    <row r="576" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -46721,7 +46532,7 @@
       <c r="BM576" s="1"/>
       <c r="BN576" s="1"/>
     </row>
-    <row r="577" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -46787,7 +46598,7 @@
       <c r="BM577" s="1"/>
       <c r="BN577" s="1"/>
     </row>
-    <row r="578" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -46853,7 +46664,7 @@
       <c r="BM578" s="1"/>
       <c r="BN578" s="1"/>
     </row>
-    <row r="579" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -46919,7 +46730,7 @@
       <c r="BM579" s="1"/>
       <c r="BN579" s="1"/>
     </row>
-    <row r="580" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -46985,7 +46796,7 @@
       <c r="BM580" s="1"/>
       <c r="BN580" s="1"/>
     </row>
-    <row r="581" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -47051,7 +46862,7 @@
       <c r="BM581" s="1"/>
       <c r="BN581" s="1"/>
     </row>
-    <row r="582" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -47117,7 +46928,7 @@
       <c r="BM582" s="1"/>
       <c r="BN582" s="1"/>
     </row>
-    <row r="583" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -47183,7 +46994,7 @@
       <c r="BM583" s="1"/>
       <c r="BN583" s="1"/>
     </row>
-    <row r="584" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -47249,7 +47060,7 @@
       <c r="BM584" s="1"/>
       <c r="BN584" s="1"/>
     </row>
-    <row r="585" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -47315,7 +47126,7 @@
       <c r="BM585" s="1"/>
       <c r="BN585" s="1"/>
     </row>
-    <row r="586" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -47381,7 +47192,7 @@
       <c r="BM586" s="1"/>
       <c r="BN586" s="1"/>
     </row>
-    <row r="587" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -47447,7 +47258,7 @@
       <c r="BM587" s="1"/>
       <c r="BN587" s="1"/>
     </row>
-    <row r="588" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -47513,7 +47324,7 @@
       <c r="BM588" s="1"/>
       <c r="BN588" s="1"/>
     </row>
-    <row r="589" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -47579,7 +47390,7 @@
       <c r="BM589" s="1"/>
       <c r="BN589" s="1"/>
     </row>
-    <row r="590" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -47645,7 +47456,7 @@
       <c r="BM590" s="1"/>
       <c r="BN590" s="1"/>
     </row>
-    <row r="591" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -47711,7 +47522,7 @@
       <c r="BM591" s="1"/>
       <c r="BN591" s="1"/>
     </row>
-    <row r="592" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -47777,7 +47588,7 @@
       <c r="BM592" s="1"/>
       <c r="BN592" s="1"/>
     </row>
-    <row r="593" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -47843,7 +47654,7 @@
       <c r="BM593" s="1"/>
       <c r="BN593" s="1"/>
     </row>
-    <row r="594" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -47909,7 +47720,7 @@
       <c r="BM594" s="1"/>
       <c r="BN594" s="1"/>
     </row>
-    <row r="595" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -47975,7 +47786,7 @@
       <c r="BM595" s="1"/>
       <c r="BN595" s="1"/>
     </row>
-    <row r="596" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -48041,7 +47852,7 @@
       <c r="BM596" s="1"/>
       <c r="BN596" s="1"/>
     </row>
-    <row r="597" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -48107,7 +47918,7 @@
       <c r="BM597" s="1"/>
       <c r="BN597" s="1"/>
     </row>
-    <row r="598" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -48173,7 +47984,7 @@
       <c r="BM598" s="1"/>
       <c r="BN598" s="1"/>
     </row>
-    <row r="599" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -48239,7 +48050,7 @@
       <c r="BM599" s="1"/>
       <c r="BN599" s="1"/>
     </row>
-    <row r="600" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -48305,7 +48116,7 @@
       <c r="BM600" s="1"/>
       <c r="BN600" s="1"/>
     </row>
-    <row r="601" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -48371,7 +48182,7 @@
       <c r="BM601" s="1"/>
       <c r="BN601" s="1"/>
     </row>
-    <row r="602" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -48437,7 +48248,7 @@
       <c r="BM602" s="1"/>
       <c r="BN602" s="1"/>
     </row>
-    <row r="603" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -48503,7 +48314,7 @@
       <c r="BM603" s="1"/>
       <c r="BN603" s="1"/>
     </row>
-    <row r="604" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -48569,7 +48380,7 @@
       <c r="BM604" s="1"/>
       <c r="BN604" s="1"/>
     </row>
-    <row r="605" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -48635,7 +48446,7 @@
       <c r="BM605" s="1"/>
       <c r="BN605" s="1"/>
     </row>
-    <row r="606" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -48701,7 +48512,7 @@
       <c r="BM606" s="1"/>
       <c r="BN606" s="1"/>
     </row>
-    <row r="607" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -48767,7 +48578,7 @@
       <c r="BM607" s="1"/>
       <c r="BN607" s="1"/>
     </row>
-    <row r="608" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -48833,7 +48644,7 @@
       <c r="BM608" s="1"/>
       <c r="BN608" s="1"/>
     </row>
-    <row r="609" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -48899,7 +48710,7 @@
       <c r="BM609" s="1"/>
       <c r="BN609" s="1"/>
     </row>
-    <row r="610" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -48965,7 +48776,7 @@
       <c r="BM610" s="1"/>
       <c r="BN610" s="1"/>
     </row>
-    <row r="611" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -49031,7 +48842,7 @@
       <c r="BM611" s="1"/>
       <c r="BN611" s="1"/>
     </row>
-    <row r="612" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -49097,7 +48908,7 @@
       <c r="BM612" s="1"/>
       <c r="BN612" s="1"/>
     </row>
-    <row r="613" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -49163,7 +48974,7 @@
       <c r="BM613" s="1"/>
       <c r="BN613" s="1"/>
     </row>
-    <row r="614" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -49229,7 +49040,7 @@
       <c r="BM614" s="1"/>
       <c r="BN614" s="1"/>
     </row>
-    <row r="615" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -49295,7 +49106,7 @@
       <c r="BM615" s="1"/>
       <c r="BN615" s="1"/>
     </row>
-    <row r="616" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -49361,7 +49172,7 @@
       <c r="BM616" s="1"/>
       <c r="BN616" s="1"/>
     </row>
-    <row r="617" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -49427,7 +49238,7 @@
       <c r="BM617" s="1"/>
       <c r="BN617" s="1"/>
     </row>
-    <row r="618" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -49493,7 +49304,7 @@
       <c r="BM618" s="1"/>
       <c r="BN618" s="1"/>
     </row>
-    <row r="619" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -49559,7 +49370,7 @@
       <c r="BM619" s="1"/>
       <c r="BN619" s="1"/>
     </row>
-    <row r="620" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -49625,7 +49436,7 @@
       <c r="BM620" s="1"/>
       <c r="BN620" s="1"/>
     </row>
-    <row r="621" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -49691,7 +49502,7 @@
       <c r="BM621" s="1"/>
       <c r="BN621" s="1"/>
     </row>
-    <row r="622" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -49757,7 +49568,7 @@
       <c r="BM622" s="1"/>
       <c r="BN622" s="1"/>
     </row>
-    <row r="623" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -49823,7 +49634,7 @@
       <c r="BM623" s="1"/>
       <c r="BN623" s="1"/>
     </row>
-    <row r="624" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -49889,7 +49700,7 @@
       <c r="BM624" s="1"/>
       <c r="BN624" s="1"/>
     </row>
-    <row r="625" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -49955,7 +49766,7 @@
       <c r="BM625" s="1"/>
       <c r="BN625" s="1"/>
     </row>
-    <row r="626" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -50021,7 +49832,7 @@
       <c r="BM626" s="1"/>
       <c r="BN626" s="1"/>
     </row>
-    <row r="627" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -50087,7 +49898,7 @@
       <c r="BM627" s="1"/>
       <c r="BN627" s="1"/>
     </row>
-    <row r="628" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -50153,7 +49964,7 @@
       <c r="BM628" s="1"/>
       <c r="BN628" s="1"/>
     </row>
-    <row r="629" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -50219,7 +50030,7 @@
       <c r="BM629" s="1"/>
       <c r="BN629" s="1"/>
     </row>
-    <row r="630" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -50285,7 +50096,7 @@
       <c r="BM630" s="1"/>
       <c r="BN630" s="1"/>
     </row>
-    <row r="631" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -50351,7 +50162,7 @@
       <c r="BM631" s="1"/>
       <c r="BN631" s="1"/>
     </row>
-    <row r="632" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -50417,7 +50228,7 @@
       <c r="BM632" s="1"/>
       <c r="BN632" s="1"/>
     </row>
-    <row r="633" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -50483,7 +50294,7 @@
       <c r="BM633" s="1"/>
       <c r="BN633" s="1"/>
     </row>
-    <row r="634" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -50549,7 +50360,7 @@
       <c r="BM634" s="1"/>
       <c r="BN634" s="1"/>
     </row>
-    <row r="635" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -50615,7 +50426,7 @@
       <c r="BM635" s="1"/>
       <c r="BN635" s="1"/>
     </row>
-    <row r="636" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -50681,7 +50492,7 @@
       <c r="BM636" s="1"/>
       <c r="BN636" s="1"/>
     </row>
-    <row r="637" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -50747,7 +50558,7 @@
       <c r="BM637" s="1"/>
       <c r="BN637" s="1"/>
     </row>
-    <row r="638" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -50813,7 +50624,7 @@
       <c r="BM638" s="1"/>
       <c r="BN638" s="1"/>
     </row>
-    <row r="639" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -50879,7 +50690,7 @@
       <c r="BM639" s="1"/>
       <c r="BN639" s="1"/>
     </row>
-    <row r="640" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -50945,7 +50756,7 @@
       <c r="BM640" s="1"/>
       <c r="BN640" s="1"/>
     </row>
-    <row r="641" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -51011,7 +50822,7 @@
       <c r="BM641" s="1"/>
       <c r="BN641" s="1"/>
     </row>
-    <row r="642" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -51077,7 +50888,7 @@
       <c r="BM642" s="1"/>
       <c r="BN642" s="1"/>
     </row>
-    <row r="643" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -51143,7 +50954,7 @@
       <c r="BM643" s="1"/>
       <c r="BN643" s="1"/>
     </row>
-    <row r="644" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -51209,7 +51020,7 @@
       <c r="BM644" s="1"/>
       <c r="BN644" s="1"/>
     </row>
-    <row r="645" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -51275,7 +51086,7 @@
       <c r="BM645" s="1"/>
       <c r="BN645" s="1"/>
     </row>
-    <row r="646" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -51341,7 +51152,7 @@
       <c r="BM646" s="1"/>
       <c r="BN646" s="1"/>
     </row>
-    <row r="647" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -51407,7 +51218,7 @@
       <c r="BM647" s="1"/>
       <c r="BN647" s="1"/>
     </row>
-    <row r="648" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -51473,7 +51284,7 @@
       <c r="BM648" s="1"/>
       <c r="BN648" s="1"/>
     </row>
-    <row r="649" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -51539,7 +51350,7 @@
       <c r="BM649" s="1"/>
       <c r="BN649" s="1"/>
     </row>
-    <row r="650" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -51605,7 +51416,7 @@
       <c r="BM650" s="1"/>
       <c r="BN650" s="1"/>
     </row>
-    <row r="651" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -51671,7 +51482,7 @@
       <c r="BM651" s="1"/>
       <c r="BN651" s="1"/>
     </row>
-    <row r="652" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -51737,7 +51548,7 @@
       <c r="BM652" s="1"/>
       <c r="BN652" s="1"/>
     </row>
-    <row r="653" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -51803,7 +51614,7 @@
       <c r="BM653" s="1"/>
       <c r="BN653" s="1"/>
     </row>
-    <row r="654" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -51869,7 +51680,7 @@
       <c r="BM654" s="1"/>
       <c r="BN654" s="1"/>
     </row>
-    <row r="655" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -51935,7 +51746,7 @@
       <c r="BM655" s="1"/>
       <c r="BN655" s="1"/>
     </row>
-    <row r="656" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -52001,7 +51812,7 @@
       <c r="BM656" s="1"/>
       <c r="BN656" s="1"/>
     </row>
-    <row r="657" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -52067,7 +51878,7 @@
       <c r="BM657" s="1"/>
       <c r="BN657" s="1"/>
     </row>
-    <row r="658" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -52133,7 +51944,7 @@
       <c r="BM658" s="1"/>
       <c r="BN658" s="1"/>
     </row>
-    <row r="659" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -52199,7 +52010,7 @@
       <c r="BM659" s="1"/>
       <c r="BN659" s="1"/>
     </row>
-    <row r="660" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -52265,7 +52076,7 @@
       <c r="BM660" s="1"/>
       <c r="BN660" s="1"/>
     </row>
-    <row r="661" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -52331,7 +52142,7 @@
       <c r="BM661" s="1"/>
       <c r="BN661" s="1"/>
     </row>
-    <row r="662" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -52397,7 +52208,7 @@
       <c r="BM662" s="1"/>
       <c r="BN662" s="1"/>
     </row>
-    <row r="663" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -52463,7 +52274,7 @@
       <c r="BM663" s="1"/>
       <c r="BN663" s="1"/>
     </row>
-    <row r="664" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -52529,7 +52340,7 @@
       <c r="BM664" s="1"/>
       <c r="BN664" s="1"/>
     </row>
-    <row r="665" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -52595,7 +52406,7 @@
       <c r="BM665" s="1"/>
       <c r="BN665" s="1"/>
     </row>
-    <row r="666" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -52661,7 +52472,7 @@
       <c r="BM666" s="1"/>
       <c r="BN666" s="1"/>
     </row>
-    <row r="667" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -52727,7 +52538,7 @@
       <c r="BM667" s="1"/>
       <c r="BN667" s="1"/>
     </row>
-    <row r="668" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -52793,7 +52604,7 @@
       <c r="BM668" s="1"/>
       <c r="BN668" s="1"/>
     </row>
-    <row r="669" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -52859,7 +52670,7 @@
       <c r="BM669" s="1"/>
       <c r="BN669" s="1"/>
     </row>
-    <row r="670" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -52925,7 +52736,7 @@
       <c r="BM670" s="1"/>
       <c r="BN670" s="1"/>
     </row>
-    <row r="671" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -52991,7 +52802,7 @@
       <c r="BM671" s="1"/>
       <c r="BN671" s="1"/>
     </row>
-    <row r="672" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -53057,7 +52868,7 @@
       <c r="BM672" s="1"/>
       <c r="BN672" s="1"/>
     </row>
-    <row r="673" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -53123,7 +52934,7 @@
       <c r="BM673" s="1"/>
       <c r="BN673" s="1"/>
     </row>
-    <row r="674" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -53189,7 +53000,7 @@
       <c r="BM674" s="1"/>
       <c r="BN674" s="1"/>
     </row>
-    <row r="675" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -53255,7 +53066,7 @@
       <c r="BM675" s="1"/>
       <c r="BN675" s="1"/>
     </row>
-    <row r="676" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -53321,7 +53132,7 @@
       <c r="BM676" s="1"/>
       <c r="BN676" s="1"/>
     </row>
-    <row r="677" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -53387,7 +53198,7 @@
       <c r="BM677" s="1"/>
       <c r="BN677" s="1"/>
     </row>
-    <row r="678" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -53453,7 +53264,7 @@
       <c r="BM678" s="1"/>
       <c r="BN678" s="1"/>
     </row>
-    <row r="679" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -53519,7 +53330,7 @@
       <c r="BM679" s="1"/>
       <c r="BN679" s="1"/>
     </row>
-    <row r="680" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -53585,7 +53396,7 @@
       <c r="BM680" s="1"/>
       <c r="BN680" s="1"/>
     </row>
-    <row r="681" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -53651,7 +53462,7 @@
       <c r="BM681" s="1"/>
       <c r="BN681" s="1"/>
     </row>
-    <row r="682" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -53717,7 +53528,7 @@
       <c r="BM682" s="1"/>
       <c r="BN682" s="1"/>
     </row>
-    <row r="683" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -53783,7 +53594,7 @@
       <c r="BM683" s="1"/>
       <c r="BN683" s="1"/>
     </row>
-    <row r="684" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -53849,7 +53660,7 @@
       <c r="BM684" s="1"/>
       <c r="BN684" s="1"/>
     </row>
-    <row r="685" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -53915,7 +53726,7 @@
       <c r="BM685" s="1"/>
       <c r="BN685" s="1"/>
     </row>
-    <row r="686" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -53981,7 +53792,7 @@
       <c r="BM686" s="1"/>
       <c r="BN686" s="1"/>
     </row>
-    <row r="687" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -54047,7 +53858,7 @@
       <c r="BM687" s="1"/>
       <c r="BN687" s="1"/>
     </row>
-    <row r="688" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -54113,7 +53924,7 @@
       <c r="BM688" s="1"/>
       <c r="BN688" s="1"/>
     </row>
-    <row r="689" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -54179,7 +53990,7 @@
       <c r="BM689" s="1"/>
       <c r="BN689" s="1"/>
     </row>
-    <row r="690" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -54245,7 +54056,7 @@
       <c r="BM690" s="1"/>
       <c r="BN690" s="1"/>
     </row>
-    <row r="691" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -54311,7 +54122,7 @@
       <c r="BM691" s="1"/>
       <c r="BN691" s="1"/>
     </row>
-    <row r="692" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -54377,7 +54188,7 @@
       <c r="BM692" s="1"/>
       <c r="BN692" s="1"/>
     </row>
-    <row r="693" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -54443,7 +54254,7 @@
       <c r="BM693" s="1"/>
       <c r="BN693" s="1"/>
     </row>
-    <row r="694" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -54509,7 +54320,7 @@
       <c r="BM694" s="1"/>
       <c r="BN694" s="1"/>
     </row>
-    <row r="695" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -54575,7 +54386,7 @@
       <c r="BM695" s="1"/>
       <c r="BN695" s="1"/>
     </row>
-    <row r="696" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -54641,7 +54452,7 @@
       <c r="BM696" s="1"/>
       <c r="BN696" s="1"/>
     </row>
-    <row r="697" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -54707,7 +54518,7 @@
       <c r="BM697" s="1"/>
       <c r="BN697" s="1"/>
     </row>
-    <row r="698" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -54773,7 +54584,7 @@
       <c r="BM698" s="1"/>
       <c r="BN698" s="1"/>
     </row>
-    <row r="699" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -54839,7 +54650,7 @@
       <c r="BM699" s="1"/>
       <c r="BN699" s="1"/>
     </row>
-    <row r="700" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -54905,7 +54716,7 @@
       <c r="BM700" s="1"/>
       <c r="BN700" s="1"/>
     </row>
-    <row r="701" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -54971,7 +54782,7 @@
       <c r="BM701" s="1"/>
       <c r="BN701" s="1"/>
     </row>
-    <row r="702" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -55037,7 +54848,7 @@
       <c r="BM702" s="1"/>
       <c r="BN702" s="1"/>
     </row>
-    <row r="703" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -55103,7 +54914,7 @@
       <c r="BM703" s="1"/>
       <c r="BN703" s="1"/>
     </row>
-    <row r="704" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -55169,7 +54980,7 @@
       <c r="BM704" s="1"/>
       <c r="BN704" s="1"/>
     </row>
-    <row r="705" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -55235,7 +55046,7 @@
       <c r="BM705" s="1"/>
       <c r="BN705" s="1"/>
     </row>
-    <row r="706" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -55301,7 +55112,7 @@
       <c r="BM706" s="1"/>
       <c r="BN706" s="1"/>
     </row>
-    <row r="707" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -55367,7 +55178,7 @@
       <c r="BM707" s="1"/>
       <c r="BN707" s="1"/>
     </row>
-    <row r="708" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -55433,7 +55244,7 @@
       <c r="BM708" s="1"/>
       <c r="BN708" s="1"/>
     </row>
-    <row r="709" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -55499,7 +55310,7 @@
       <c r="BM709" s="1"/>
       <c r="BN709" s="1"/>
     </row>
-    <row r="710" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -55565,7 +55376,7 @@
       <c r="BM710" s="1"/>
       <c r="BN710" s="1"/>
     </row>
-    <row r="711" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -55631,7 +55442,7 @@
       <c r="BM711" s="1"/>
       <c r="BN711" s="1"/>
     </row>
-    <row r="712" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -55697,7 +55508,7 @@
       <c r="BM712" s="1"/>
       <c r="BN712" s="1"/>
     </row>
-    <row r="713" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -55763,7 +55574,7 @@
       <c r="BM713" s="1"/>
       <c r="BN713" s="1"/>
     </row>
-    <row r="714" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -55829,7 +55640,7 @@
       <c r="BM714" s="1"/>
       <c r="BN714" s="1"/>
     </row>
-    <row r="715" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -55895,7 +55706,7 @@
       <c r="BM715" s="1"/>
       <c r="BN715" s="1"/>
     </row>
-    <row r="716" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -55961,7 +55772,7 @@
       <c r="BM716" s="1"/>
       <c r="BN716" s="1"/>
     </row>
-    <row r="717" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -56027,7 +55838,7 @@
       <c r="BM717" s="1"/>
       <c r="BN717" s="1"/>
     </row>
-    <row r="718" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -56093,7 +55904,7 @@
       <c r="BM718" s="1"/>
       <c r="BN718" s="1"/>
     </row>
-    <row r="719" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -56159,7 +55970,7 @@
       <c r="BM719" s="1"/>
       <c r="BN719" s="1"/>
     </row>
-    <row r="720" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -56225,7 +56036,7 @@
       <c r="BM720" s="1"/>
       <c r="BN720" s="1"/>
     </row>
-    <row r="721" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -56291,7 +56102,7 @@
       <c r="BM721" s="1"/>
       <c r="BN721" s="1"/>
     </row>
-    <row r="722" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -56357,7 +56168,7 @@
       <c r="BM722" s="1"/>
       <c r="BN722" s="1"/>
     </row>
-    <row r="723" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -56423,7 +56234,7 @@
       <c r="BM723" s="1"/>
       <c r="BN723" s="1"/>
     </row>
-    <row r="724" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -56489,7 +56300,7 @@
       <c r="BM724" s="1"/>
       <c r="BN724" s="1"/>
     </row>
-    <row r="725" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -56555,7 +56366,7 @@
       <c r="BM725" s="1"/>
       <c r="BN725" s="1"/>
     </row>
-    <row r="726" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -56621,7 +56432,7 @@
       <c r="BM726" s="1"/>
       <c r="BN726" s="1"/>
     </row>
-    <row r="727" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -56687,7 +56498,7 @@
       <c r="BM727" s="1"/>
       <c r="BN727" s="1"/>
     </row>
-    <row r="728" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -56753,7 +56564,7 @@
       <c r="BM728" s="1"/>
       <c r="BN728" s="1"/>
     </row>
-    <row r="729" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -56819,7 +56630,7 @@
       <c r="BM729" s="1"/>
       <c r="BN729" s="1"/>
     </row>
-    <row r="730" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -56885,7 +56696,7 @@
       <c r="BM730" s="1"/>
       <c r="BN730" s="1"/>
     </row>
-    <row r="731" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -56951,7 +56762,7 @@
       <c r="BM731" s="1"/>
       <c r="BN731" s="1"/>
     </row>
-    <row r="732" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -57017,7 +56828,7 @@
       <c r="BM732" s="1"/>
       <c r="BN732" s="1"/>
     </row>
-    <row r="733" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -57083,7 +56894,7 @@
       <c r="BM733" s="1"/>
       <c r="BN733" s="1"/>
     </row>
-    <row r="734" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -57149,7 +56960,7 @@
       <c r="BM734" s="1"/>
       <c r="BN734" s="1"/>
     </row>
-    <row r="735" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -57215,7 +57026,7 @@
       <c r="BM735" s="1"/>
       <c r="BN735" s="1"/>
     </row>
-    <row r="736" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -57281,7 +57092,7 @@
       <c r="BM736" s="1"/>
       <c r="BN736" s="1"/>
     </row>
-    <row r="737" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -57347,7 +57158,7 @@
       <c r="BM737" s="1"/>
       <c r="BN737" s="1"/>
     </row>
-    <row r="738" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -57413,7 +57224,7 @@
       <c r="BM738" s="1"/>
       <c r="BN738" s="1"/>
     </row>
-    <row r="739" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -57479,7 +57290,7 @@
       <c r="BM739" s="1"/>
       <c r="BN739" s="1"/>
     </row>
-    <row r="740" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -57545,7 +57356,7 @@
       <c r="BM740" s="1"/>
       <c r="BN740" s="1"/>
     </row>
-    <row r="741" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -57611,7 +57422,7 @@
       <c r="BM741" s="1"/>
       <c r="BN741" s="1"/>
     </row>
-    <row r="742" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -57677,7 +57488,7 @@
       <c r="BM742" s="1"/>
       <c r="BN742" s="1"/>
     </row>
-    <row r="743" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -57743,7 +57554,7 @@
       <c r="BM743" s="1"/>
       <c r="BN743" s="1"/>
     </row>
-    <row r="744" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -57809,7 +57620,7 @@
       <c r="BM744" s="1"/>
       <c r="BN744" s="1"/>
     </row>
-    <row r="745" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -57875,7 +57686,7 @@
       <c r="BM745" s="1"/>
       <c r="BN745" s="1"/>
     </row>
-    <row r="746" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -57941,7 +57752,7 @@
       <c r="BM746" s="1"/>
       <c r="BN746" s="1"/>
     </row>
-    <row r="747" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -58007,7 +57818,7 @@
       <c r="BM747" s="1"/>
       <c r="BN747" s="1"/>
     </row>
-    <row r="748" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -58073,7 +57884,7 @@
       <c r="BM748" s="1"/>
       <c r="BN748" s="1"/>
     </row>
-    <row r="749" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -58139,7 +57950,7 @@
       <c r="BM749" s="1"/>
       <c r="BN749" s="1"/>
     </row>
-    <row r="750" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -58205,7 +58016,7 @@
       <c r="BM750" s="1"/>
       <c r="BN750" s="1"/>
     </row>
-    <row r="751" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -58271,7 +58082,7 @@
       <c r="BM751" s="1"/>
       <c r="BN751" s="1"/>
     </row>
-    <row r="752" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -58337,7 +58148,7 @@
       <c r="BM752" s="1"/>
       <c r="BN752" s="1"/>
     </row>
-    <row r="753" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -58403,7 +58214,7 @@
       <c r="BM753" s="1"/>
       <c r="BN753" s="1"/>
     </row>
-    <row r="754" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -58469,7 +58280,7 @@
       <c r="BM754" s="1"/>
       <c r="BN754" s="1"/>
     </row>
-    <row r="755" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -58535,7 +58346,7 @@
       <c r="BM755" s="1"/>
       <c r="BN755" s="1"/>
     </row>
-    <row r="756" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -58601,7 +58412,7 @@
       <c r="BM756" s="1"/>
       <c r="BN756" s="1"/>
     </row>
-    <row r="757" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -58667,7 +58478,7 @@
       <c r="BM757" s="1"/>
       <c r="BN757" s="1"/>
     </row>
-    <row r="758" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -58733,7 +58544,7 @@
       <c r="BM758" s="1"/>
       <c r="BN758" s="1"/>
     </row>
-    <row r="759" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -58799,7 +58610,7 @@
       <c r="BM759" s="1"/>
       <c r="BN759" s="1"/>
     </row>
-    <row r="760" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -58865,7 +58676,7 @@
       <c r="BM760" s="1"/>
       <c r="BN760" s="1"/>
     </row>
-    <row r="761" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -58931,7 +58742,7 @@
       <c r="BM761" s="1"/>
       <c r="BN761" s="1"/>
     </row>
-    <row r="762" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -58997,7 +58808,7 @@
       <c r="BM762" s="1"/>
       <c r="BN762" s="1"/>
     </row>
-    <row r="763" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -59063,7 +58874,7 @@
       <c r="BM763" s="1"/>
       <c r="BN763" s="1"/>
     </row>
-    <row r="764" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -59129,7 +58940,7 @@
       <c r="BM764" s="1"/>
       <c r="BN764" s="1"/>
     </row>
-    <row r="765" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -59195,7 +59006,7 @@
       <c r="BM765" s="1"/>
       <c r="BN765" s="1"/>
     </row>
-    <row r="766" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -59261,7 +59072,7 @@
       <c r="BM766" s="1"/>
       <c r="BN766" s="1"/>
     </row>
-    <row r="767" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -59327,7 +59138,7 @@
       <c r="BM767" s="1"/>
       <c r="BN767" s="1"/>
     </row>
-    <row r="768" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -59393,7 +59204,7 @@
       <c r="BM768" s="1"/>
       <c r="BN768" s="1"/>
     </row>
-    <row r="769" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -59459,7 +59270,7 @@
       <c r="BM769" s="1"/>
       <c r="BN769" s="1"/>
     </row>
-    <row r="770" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -59525,7 +59336,7 @@
       <c r="BM770" s="1"/>
       <c r="BN770" s="1"/>
     </row>
-    <row r="771" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -59591,7 +59402,7 @@
       <c r="BM771" s="1"/>
       <c r="BN771" s="1"/>
     </row>
-    <row r="772" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -59657,7 +59468,7 @@
       <c r="BM772" s="1"/>
       <c r="BN772" s="1"/>
     </row>
-    <row r="773" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -59723,7 +59534,7 @@
       <c r="BM773" s="1"/>
       <c r="BN773" s="1"/>
     </row>
-    <row r="774" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -59789,7 +59600,7 @@
       <c r="BM774" s="1"/>
       <c r="BN774" s="1"/>
     </row>
-    <row r="775" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -59855,7 +59666,7 @@
       <c r="BM775" s="1"/>
       <c r="BN775" s="1"/>
     </row>
-    <row r="776" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -59921,7 +59732,7 @@
       <c r="BM776" s="1"/>
       <c r="BN776" s="1"/>
     </row>
-    <row r="777" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -59987,7 +59798,7 @@
       <c r="BM777" s="1"/>
       <c r="BN777" s="1"/>
     </row>
-    <row r="778" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -60053,7 +59864,7 @@
       <c r="BM778" s="1"/>
       <c r="BN778" s="1"/>
     </row>
-    <row r="779" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -60119,7 +59930,7 @@
       <c r="BM779" s="1"/>
       <c r="BN779" s="1"/>
     </row>
-    <row r="780" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -60185,7 +59996,7 @@
       <c r="BM780" s="1"/>
       <c r="BN780" s="1"/>
     </row>
-    <row r="781" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -60251,7 +60062,7 @@
       <c r="BM781" s="1"/>
       <c r="BN781" s="1"/>
     </row>
-    <row r="782" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -60317,7 +60128,7 @@
       <c r="BM782" s="1"/>
       <c r="BN782" s="1"/>
     </row>
-    <row r="783" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -60383,7 +60194,7 @@
       <c r="BM783" s="1"/>
       <c r="BN783" s="1"/>
     </row>
-    <row r="784" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -60449,7 +60260,7 @@
       <c r="BM784" s="1"/>
       <c r="BN784" s="1"/>
     </row>
-    <row r="785" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -60515,7 +60326,7 @@
       <c r="BM785" s="1"/>
       <c r="BN785" s="1"/>
     </row>
-    <row r="786" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -60581,7 +60392,7 @@
       <c r="BM786" s="1"/>
       <c r="BN786" s="1"/>
     </row>
-    <row r="787" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -60647,7 +60458,7 @@
       <c r="BM787" s="1"/>
       <c r="BN787" s="1"/>
     </row>
-    <row r="788" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -60713,7 +60524,7 @@
       <c r="BM788" s="1"/>
       <c r="BN788" s="1"/>
     </row>
-    <row r="789" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -60779,7 +60590,7 @@
       <c r="BM789" s="1"/>
       <c r="BN789" s="1"/>
     </row>
-    <row r="790" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -60845,7 +60656,7 @@
       <c r="BM790" s="1"/>
       <c r="BN790" s="1"/>
     </row>
-    <row r="791" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -60911,7 +60722,7 @@
       <c r="BM791" s="1"/>
       <c r="BN791" s="1"/>
     </row>
-    <row r="792" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -60977,7 +60788,7 @@
       <c r="BM792" s="1"/>
       <c r="BN792" s="1"/>
     </row>
-    <row r="793" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -61043,7 +60854,7 @@
       <c r="BM793" s="1"/>
       <c r="BN793" s="1"/>
     </row>
-    <row r="794" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -61109,7 +60920,7 @@
       <c r="BM794" s="1"/>
       <c r="BN794" s="1"/>
     </row>
-    <row r="795" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -61175,7 +60986,7 @@
       <c r="BM795" s="1"/>
       <c r="BN795" s="1"/>
     </row>
-    <row r="796" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -61241,7 +61052,7 @@
       <c r="BM796" s="1"/>
       <c r="BN796" s="1"/>
     </row>
-    <row r="797" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -61307,7 +61118,7 @@
       <c r="BM797" s="1"/>
       <c r="BN797" s="1"/>
     </row>
-    <row r="798" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -61373,7 +61184,7 @@
       <c r="BM798" s="1"/>
       <c r="BN798" s="1"/>
     </row>
-    <row r="799" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -61439,7 +61250,7 @@
       <c r="BM799" s="1"/>
       <c r="BN799" s="1"/>
     </row>
-    <row r="800" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -61505,7 +61316,7 @@
       <c r="BM800" s="1"/>
       <c r="BN800" s="1"/>
     </row>
-    <row r="801" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -61571,7 +61382,7 @@
       <c r="BM801" s="1"/>
       <c r="BN801" s="1"/>
     </row>
-    <row r="802" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -61637,7 +61448,7 @@
       <c r="BM802" s="1"/>
       <c r="BN802" s="1"/>
     </row>
-    <row r="803" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -61703,7 +61514,7 @@
       <c r="BM803" s="1"/>
       <c r="BN803" s="1"/>
     </row>
-    <row r="804" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -61769,7 +61580,7 @@
       <c r="BM804" s="1"/>
       <c r="BN804" s="1"/>
     </row>
-    <row r="805" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -61835,7 +61646,7 @@
       <c r="BM805" s="1"/>
       <c r="BN805" s="1"/>
     </row>
-    <row r="806" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -61901,7 +61712,7 @@
       <c r="BM806" s="1"/>
       <c r="BN806" s="1"/>
     </row>
-    <row r="807" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -61967,7 +61778,7 @@
       <c r="BM807" s="1"/>
       <c r="BN807" s="1"/>
     </row>
-    <row r="808" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -62033,7 +61844,7 @@
       <c r="BM808" s="1"/>
       <c r="BN808" s="1"/>
     </row>
-    <row r="809" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -62099,7 +61910,7 @@
       <c r="BM809" s="1"/>
       <c r="BN809" s="1"/>
     </row>
-    <row r="810" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -62165,7 +61976,7 @@
       <c r="BM810" s="1"/>
       <c r="BN810" s="1"/>
     </row>
-    <row r="811" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -62231,7 +62042,7 @@
       <c r="BM811" s="1"/>
       <c r="BN811" s="1"/>
     </row>
-    <row r="812" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -62297,7 +62108,7 @@
       <c r="BM812" s="1"/>
       <c r="BN812" s="1"/>
     </row>
-    <row r="813" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -62363,7 +62174,7 @@
       <c r="BM813" s="1"/>
       <c r="BN813" s="1"/>
     </row>
-    <row r="814" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -62429,7 +62240,7 @@
       <c r="BM814" s="1"/>
       <c r="BN814" s="1"/>
     </row>
-    <row r="815" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -62495,7 +62306,7 @@
       <c r="BM815" s="1"/>
       <c r="BN815" s="1"/>
     </row>
-    <row r="816" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -62561,7 +62372,7 @@
       <c r="BM816" s="1"/>
       <c r="BN816" s="1"/>
     </row>
-    <row r="817" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -62627,7 +62438,7 @@
       <c r="BM817" s="1"/>
       <c r="BN817" s="1"/>
     </row>
-    <row r="818" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -62693,7 +62504,7 @@
       <c r="BM818" s="1"/>
       <c r="BN818" s="1"/>
     </row>
-    <row r="819" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -62759,7 +62570,7 @@
       <c r="BM819" s="1"/>
       <c r="BN819" s="1"/>
     </row>
-    <row r="820" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -62825,7 +62636,7 @@
       <c r="BM820" s="1"/>
       <c r="BN820" s="1"/>
     </row>
-    <row r="821" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -62891,7 +62702,7 @@
       <c r="BM821" s="1"/>
       <c r="BN821" s="1"/>
     </row>
-    <row r="822" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -62957,7 +62768,7 @@
       <c r="BM822" s="1"/>
       <c r="BN822" s="1"/>
     </row>
-    <row r="823" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -63023,7 +62834,7 @@
       <c r="BM823" s="1"/>
       <c r="BN823" s="1"/>
     </row>
-    <row r="824" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -63089,7 +62900,7 @@
       <c r="BM824" s="1"/>
       <c r="BN824" s="1"/>
     </row>
-    <row r="825" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -63155,7 +62966,7 @@
       <c r="BM825" s="1"/>
       <c r="BN825" s="1"/>
     </row>
-    <row r="826" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -63221,7 +63032,7 @@
       <c r="BM826" s="1"/>
       <c r="BN826" s="1"/>
     </row>
-    <row r="827" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -63287,7 +63098,7 @@
       <c r="BM827" s="1"/>
       <c r="BN827" s="1"/>
     </row>
-    <row r="828" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -63353,7 +63164,7 @@
       <c r="BM828" s="1"/>
       <c r="BN828" s="1"/>
     </row>
-    <row r="829" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -63419,7 +63230,7 @@
       <c r="BM829" s="1"/>
       <c r="BN829" s="1"/>
     </row>
-    <row r="830" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -63485,7 +63296,7 @@
       <c r="BM830" s="1"/>
       <c r="BN830" s="1"/>
     </row>
-    <row r="831" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -63551,7 +63362,7 @@
       <c r="BM831" s="1"/>
       <c r="BN831" s="1"/>
     </row>
-    <row r="832" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -63617,7 +63428,7 @@
       <c r="BM832" s="1"/>
       <c r="BN832" s="1"/>
     </row>
-    <row r="833" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -63683,7 +63494,7 @@
       <c r="BM833" s="1"/>
       <c r="BN833" s="1"/>
     </row>
-    <row r="834" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -63749,7 +63560,7 @@
       <c r="BM834" s="1"/>
       <c r="BN834" s="1"/>
     </row>
-    <row r="835" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -63815,7 +63626,7 @@
       <c r="BM835" s="1"/>
       <c r="BN835" s="1"/>
     </row>
-    <row r="836" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -63881,7 +63692,7 @@
       <c r="BM836" s="1"/>
       <c r="BN836" s="1"/>
     </row>
-    <row r="837" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -63947,7 +63758,7 @@
       <c r="BM837" s="1"/>
       <c r="BN837" s="1"/>
     </row>
-    <row r="838" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -64013,7 +63824,7 @@
       <c r="BM838" s="1"/>
       <c r="BN838" s="1"/>
     </row>
-    <row r="839" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -64079,7 +63890,7 @@
       <c r="BM839" s="1"/>
       <c r="BN839" s="1"/>
     </row>
-    <row r="840" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -64145,7 +63956,7 @@
       <c r="BM840" s="1"/>
       <c r="BN840" s="1"/>
     </row>
-    <row r="841" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -64211,7 +64022,7 @@
       <c r="BM841" s="1"/>
       <c r="BN841" s="1"/>
     </row>
-    <row r="842" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -64277,7 +64088,7 @@
       <c r="BM842" s="1"/>
       <c r="BN842" s="1"/>
     </row>
-    <row r="843" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -64343,7 +64154,7 @@
       <c r="BM843" s="1"/>
       <c r="BN843" s="1"/>
     </row>
-    <row r="844" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -64409,7 +64220,7 @@
       <c r="BM844" s="1"/>
       <c r="BN844" s="1"/>
     </row>
-    <row r="845" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -64475,7 +64286,7 @@
       <c r="BM845" s="1"/>
       <c r="BN845" s="1"/>
     </row>
-    <row r="846" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -64541,7 +64352,7 @@
       <c r="BM846" s="1"/>
       <c r="BN846" s="1"/>
     </row>
-    <row r="847" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -64607,7 +64418,7 @@
       <c r="BM847" s="1"/>
       <c r="BN847" s="1"/>
     </row>
-    <row r="848" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -64673,7 +64484,7 @@
       <c r="BM848" s="1"/>
       <c r="BN848" s="1"/>
     </row>
-    <row r="849" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -64739,7 +64550,7 @@
       <c r="BM849" s="1"/>
       <c r="BN849" s="1"/>
     </row>
-    <row r="850" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -64805,7 +64616,7 @@
       <c r="BM850" s="1"/>
       <c r="BN850" s="1"/>
     </row>
-    <row r="851" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -64871,7 +64682,7 @@
       <c r="BM851" s="1"/>
       <c r="BN851" s="1"/>
     </row>
-    <row r="852" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -64937,7 +64748,7 @@
       <c r="BM852" s="1"/>
       <c r="BN852" s="1"/>
     </row>
-    <row r="853" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -65003,7 +64814,7 @@
       <c r="BM853" s="1"/>
       <c r="BN853" s="1"/>
     </row>
-    <row r="854" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -65069,7 +64880,7 @@
       <c r="BM854" s="1"/>
       <c r="BN854" s="1"/>
     </row>
-    <row r="855" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -65135,7 +64946,7 @@
       <c r="BM855" s="1"/>
       <c r="BN855" s="1"/>
     </row>
-    <row r="856" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -65201,7 +65012,7 @@
       <c r="BM856" s="1"/>
       <c r="BN856" s="1"/>
     </row>
-    <row r="857" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -65267,7 +65078,7 @@
       <c r="BM857" s="1"/>
       <c r="BN857" s="1"/>
     </row>
-    <row r="858" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -65333,7 +65144,7 @@
       <c r="BM858" s="1"/>
       <c r="BN858" s="1"/>
     </row>
-    <row r="859" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -65399,7 +65210,7 @@
       <c r="BM859" s="1"/>
       <c r="BN859" s="1"/>
     </row>
-    <row r="860" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -65465,7 +65276,7 @@
       <c r="BM860" s="1"/>
       <c r="BN860" s="1"/>
     </row>
-    <row r="861" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -65531,7 +65342,7 @@
       <c r="BM861" s="1"/>
       <c r="BN861" s="1"/>
     </row>
-    <row r="862" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -65597,7 +65408,7 @@
       <c r="BM862" s="1"/>
       <c r="BN862" s="1"/>
     </row>
-    <row r="863" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -65663,7 +65474,7 @@
       <c r="BM863" s="1"/>
       <c r="BN863" s="1"/>
     </row>
-    <row r="864" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -65729,7 +65540,7 @@
       <c r="BM864" s="1"/>
       <c r="BN864" s="1"/>
     </row>
-    <row r="865" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -65795,7 +65606,7 @@
       <c r="BM865" s="1"/>
       <c r="BN865" s="1"/>
     </row>
-    <row r="866" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -65861,7 +65672,7 @@
       <c r="BM866" s="1"/>
       <c r="BN866" s="1"/>
     </row>
-    <row r="867" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -65927,7 +65738,7 @@
       <c r="BM867" s="1"/>
       <c r="BN867" s="1"/>
     </row>
-    <row r="868" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -65993,7 +65804,7 @@
       <c r="BM868" s="1"/>
       <c r="BN868" s="1"/>
     </row>
-    <row r="869" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -66059,7 +65870,7 @@
       <c r="BM869" s="1"/>
       <c r="BN869" s="1"/>
     </row>
-    <row r="870" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -66125,7 +65936,7 @@
       <c r="BM870" s="1"/>
       <c r="BN870" s="1"/>
     </row>
-    <row r="871" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -66191,7 +66002,7 @@
       <c r="BM871" s="1"/>
       <c r="BN871" s="1"/>
     </row>
-    <row r="872" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -66257,7 +66068,7 @@
       <c r="BM872" s="1"/>
       <c r="BN872" s="1"/>
     </row>
-    <row r="873" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -66323,7 +66134,7 @@
       <c r="BM873" s="1"/>
       <c r="BN873" s="1"/>
     </row>
-    <row r="874" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -66389,7 +66200,7 @@
       <c r="BM874" s="1"/>
       <c r="BN874" s="1"/>
     </row>
-    <row r="875" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -66455,7 +66266,7 @@
       <c r="BM875" s="1"/>
       <c r="BN875" s="1"/>
     </row>
-    <row r="876" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -66521,7 +66332,7 @@
       <c r="BM876" s="1"/>
       <c r="BN876" s="1"/>
     </row>
-    <row r="877" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -66587,7 +66398,7 @@
       <c r="BM877" s="1"/>
       <c r="BN877" s="1"/>
     </row>
-    <row r="878" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -66653,7 +66464,7 @@
       <c r="BM878" s="1"/>
       <c r="BN878" s="1"/>
     </row>
-    <row r="879" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -66719,7 +66530,7 @@
       <c r="BM879" s="1"/>
       <c r="BN879" s="1"/>
     </row>
-    <row r="880" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -66785,7 +66596,7 @@
       <c r="BM880" s="1"/>
       <c r="BN880" s="1"/>
     </row>
-    <row r="881" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -66851,7 +66662,7 @@
       <c r="BM881" s="1"/>
       <c r="BN881" s="1"/>
     </row>
-    <row r="882" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -66917,7 +66728,7 @@
       <c r="BM882" s="1"/>
       <c r="BN882" s="1"/>
     </row>
-    <row r="883" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -66983,7 +66794,7 @@
       <c r="BM883" s="1"/>
       <c r="BN883" s="1"/>
     </row>
-    <row r="884" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -67049,7 +66860,7 @@
       <c r="BM884" s="1"/>
       <c r="BN884" s="1"/>
     </row>
-    <row r="885" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -67115,7 +66926,7 @@
       <c r="BM885" s="1"/>
       <c r="BN885" s="1"/>
     </row>
-    <row r="886" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -67181,7 +66992,7 @@
       <c r="BM886" s="1"/>
       <c r="BN886" s="1"/>
     </row>
-    <row r="887" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -67247,7 +67058,7 @@
       <c r="BM887" s="1"/>
       <c r="BN887" s="1"/>
     </row>
-    <row r="888" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -67313,7 +67124,7 @@
       <c r="BM888" s="1"/>
       <c r="BN888" s="1"/>
     </row>
-    <row r="889" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -67379,7 +67190,7 @@
       <c r="BM889" s="1"/>
       <c r="BN889" s="1"/>
     </row>
-    <row r="890" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -67445,7 +67256,7 @@
       <c r="BM890" s="1"/>
       <c r="BN890" s="1"/>
     </row>
-    <row r="891" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -67511,7 +67322,7 @@
       <c r="BM891" s="1"/>
       <c r="BN891" s="1"/>
     </row>
-    <row r="892" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -67577,7 +67388,7 @@
       <c r="BM892" s="1"/>
       <c r="BN892" s="1"/>
     </row>
-    <row r="893" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -67643,7 +67454,7 @@
       <c r="BM893" s="1"/>
       <c r="BN893" s="1"/>
     </row>
-    <row r="894" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -67709,7 +67520,7 @@
       <c r="BM894" s="1"/>
       <c r="BN894" s="1"/>
     </row>
-    <row r="895" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -67775,7 +67586,7 @@
       <c r="BM895" s="1"/>
       <c r="BN895" s="1"/>
     </row>
-    <row r="896" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -67841,7 +67652,7 @@
       <c r="BM896" s="1"/>
       <c r="BN896" s="1"/>
     </row>
-    <row r="897" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -67907,7 +67718,7 @@
       <c r="BM897" s="1"/>
       <c r="BN897" s="1"/>
     </row>
-    <row r="898" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -67973,7 +67784,7 @@
       <c r="BM898" s="1"/>
       <c r="BN898" s="1"/>
     </row>
-    <row r="899" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -68039,7 +67850,7 @@
       <c r="BM899" s="1"/>
       <c r="BN899" s="1"/>
     </row>
-    <row r="900" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -68105,7 +67916,7 @@
       <c r="BM900" s="1"/>
       <c r="BN900" s="1"/>
     </row>
-    <row r="901" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -68171,7 +67982,7 @@
       <c r="BM901" s="1"/>
       <c r="BN901" s="1"/>
     </row>
-    <row r="902" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -68237,7 +68048,7 @@
       <c r="BM902" s="1"/>
       <c r="BN902" s="1"/>
     </row>
-    <row r="903" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -68303,7 +68114,7 @@
       <c r="BM903" s="1"/>
       <c r="BN903" s="1"/>
     </row>
-    <row r="904" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -68369,7 +68180,7 @@
       <c r="BM904" s="1"/>
       <c r="BN904" s="1"/>
     </row>
-    <row r="905" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -68435,7 +68246,7 @@
       <c r="BM905" s="1"/>
       <c r="BN905" s="1"/>
     </row>
-    <row r="906" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -68501,7 +68312,7 @@
       <c r="BM906" s="1"/>
       <c r="BN906" s="1"/>
     </row>
-    <row r="907" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -68567,7 +68378,7 @@
       <c r="BM907" s="1"/>
       <c r="BN907" s="1"/>
     </row>
-    <row r="908" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -68633,7 +68444,7 @@
       <c r="BM908" s="1"/>
       <c r="BN908" s="1"/>
     </row>
-    <row r="909" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -68699,7 +68510,7 @@
       <c r="BM909" s="1"/>
       <c r="BN909" s="1"/>
     </row>
-    <row r="910" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -68765,7 +68576,7 @@
       <c r="BM910" s="1"/>
       <c r="BN910" s="1"/>
     </row>
-    <row r="911" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -68831,7 +68642,7 @@
       <c r="BM911" s="1"/>
       <c r="BN911" s="1"/>
     </row>
-    <row r="912" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -68897,7 +68708,7 @@
       <c r="BM912" s="1"/>
       <c r="BN912" s="1"/>
     </row>
-    <row r="913" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -68963,7 +68774,7 @@
       <c r="BM913" s="1"/>
       <c r="BN913" s="1"/>
     </row>
-    <row r="914" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -69029,7 +68840,7 @@
       <c r="BM914" s="1"/>
       <c r="BN914" s="1"/>
     </row>
-    <row r="915" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -69095,7 +68906,7 @@
       <c r="BM915" s="1"/>
       <c r="BN915" s="1"/>
     </row>
-    <row r="916" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -69161,7 +68972,7 @@
       <c r="BM916" s="1"/>
       <c r="BN916" s="1"/>
     </row>
-    <row r="917" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -69227,7 +69038,7 @@
       <c r="BM917" s="1"/>
       <c r="BN917" s="1"/>
     </row>
-    <row r="918" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -69293,7 +69104,7 @@
       <c r="BM918" s="1"/>
       <c r="BN918" s="1"/>
     </row>
-    <row r="919" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -69359,7 +69170,7 @@
       <c r="BM919" s="1"/>
       <c r="BN919" s="1"/>
     </row>
-    <row r="920" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -69425,7 +69236,7 @@
       <c r="BM920" s="1"/>
       <c r="BN920" s="1"/>
     </row>
-    <row r="921" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -69491,7 +69302,7 @@
       <c r="BM921" s="1"/>
       <c r="BN921" s="1"/>
     </row>
-    <row r="922" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -69557,7 +69368,7 @@
       <c r="BM922" s="1"/>
       <c r="BN922" s="1"/>
     </row>
-    <row r="923" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -69623,7 +69434,7 @@
       <c r="BM923" s="1"/>
       <c r="BN923" s="1"/>
     </row>
-    <row r="924" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -69689,7 +69500,7 @@
       <c r="BM924" s="1"/>
       <c r="BN924" s="1"/>
     </row>
-    <row r="925" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -69755,7 +69566,7 @@
       <c r="BM925" s="1"/>
       <c r="BN925" s="1"/>
     </row>
-    <row r="926" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -69821,7 +69632,7 @@
       <c r="BM926" s="1"/>
       <c r="BN926" s="1"/>
     </row>
-    <row r="927" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -69887,7 +69698,7 @@
       <c r="BM927" s="1"/>
       <c r="BN927" s="1"/>
     </row>
-    <row r="928" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -69953,7 +69764,7 @@
       <c r="BM928" s="1"/>
       <c r="BN928" s="1"/>
     </row>
-    <row r="929" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -70019,7 +69830,7 @@
       <c r="BM929" s="1"/>
       <c r="BN929" s="1"/>
     </row>
-    <row r="930" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -70085,7 +69896,7 @@
       <c r="BM930" s="1"/>
       <c r="BN930" s="1"/>
     </row>
-    <row r="931" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -70151,7 +69962,7 @@
       <c r="BM931" s="1"/>
       <c r="BN931" s="1"/>
     </row>
-    <row r="932" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -70217,7 +70028,7 @@
       <c r="BM932" s="1"/>
       <c r="BN932" s="1"/>
     </row>
-    <row r="933" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -70283,7 +70094,7 @@
       <c r="BM933" s="1"/>
       <c r="BN933" s="1"/>
     </row>
-    <row r="934" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -70349,7 +70160,7 @@
       <c r="BM934" s="1"/>
       <c r="BN934" s="1"/>
     </row>
-    <row r="935" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -70415,7 +70226,7 @@
       <c r="BM935" s="1"/>
       <c r="BN935" s="1"/>
     </row>
-    <row r="936" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -70481,7 +70292,7 @@
       <c r="BM936" s="1"/>
       <c r="BN936" s="1"/>
     </row>
-    <row r="937" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -70547,7 +70358,7 @@
       <c r="BM937" s="1"/>
       <c r="BN937" s="1"/>
     </row>
-    <row r="938" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -70613,7 +70424,7 @@
       <c r="BM938" s="1"/>
       <c r="BN938" s="1"/>
     </row>
-    <row r="939" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -70679,7 +70490,7 @@
       <c r="BM939" s="1"/>
       <c r="BN939" s="1"/>
     </row>
-    <row r="940" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -70745,7 +70556,7 @@
       <c r="BM940" s="1"/>
       <c r="BN940" s="1"/>
     </row>
-    <row r="941" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -70811,7 +70622,7 @@
       <c r="BM941" s="1"/>
       <c r="BN941" s="1"/>
     </row>
-    <row r="942" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -70877,7 +70688,7 @@
       <c r="BM942" s="1"/>
       <c r="BN942" s="1"/>
     </row>
-    <row r="943" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -70943,7 +70754,7 @@
       <c r="BM943" s="1"/>
       <c r="BN943" s="1"/>
     </row>
-    <row r="944" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -71009,7 +70820,7 @@
       <c r="BM944" s="1"/>
       <c r="BN944" s="1"/>
     </row>
-    <row r="945" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -71075,7 +70886,7 @@
       <c r="BM945" s="1"/>
       <c r="BN945" s="1"/>
     </row>
-    <row r="946" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -71141,7 +70952,7 @@
       <c r="BM946" s="1"/>
       <c r="BN946" s="1"/>
     </row>
-    <row r="947" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -71207,7 +71018,7 @@
       <c r="BM947" s="1"/>
       <c r="BN947" s="1"/>
     </row>
-    <row r="948" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -71273,7 +71084,7 @@
       <c r="BM948" s="1"/>
       <c r="BN948" s="1"/>
     </row>
-    <row r="949" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -71339,7 +71150,7 @@
       <c r="BM949" s="1"/>
       <c r="BN949" s="1"/>
     </row>
-    <row r="950" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -71405,7 +71216,7 @@
       <c r="BM950" s="1"/>
       <c r="BN950" s="1"/>
     </row>
-    <row r="951" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -71471,7 +71282,7 @@
       <c r="BM951" s="1"/>
       <c r="BN951" s="1"/>
     </row>
-    <row r="952" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -71537,7 +71348,7 @@
       <c r="BM952" s="1"/>
       <c r="BN952" s="1"/>
     </row>
-    <row r="953" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -71603,7 +71414,7 @@
       <c r="BM953" s="1"/>
       <c r="BN953" s="1"/>
     </row>
-    <row r="954" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -71669,7 +71480,7 @@
       <c r="BM954" s="1"/>
       <c r="BN954" s="1"/>
     </row>
-    <row r="955" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -71735,7 +71546,7 @@
       <c r="BM955" s="1"/>
       <c r="BN955" s="1"/>
     </row>
-    <row r="956" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -71801,7 +71612,7 @@
       <c r="BM956" s="1"/>
       <c r="BN956" s="1"/>
     </row>
-    <row r="957" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -71867,7 +71678,7 @@
       <c r="BM957" s="1"/>
       <c r="BN957" s="1"/>
     </row>
-    <row r="958" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -71933,7 +71744,7 @@
       <c r="BM958" s="1"/>
       <c r="BN958" s="1"/>
     </row>
-    <row r="959" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -71999,7 +71810,7 @@
       <c r="BM959" s="1"/>
       <c r="BN959" s="1"/>
     </row>
-    <row r="960" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -72065,7 +71876,7 @@
       <c r="BM960" s="1"/>
       <c r="BN960" s="1"/>
     </row>
-    <row r="961" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -72131,7 +71942,7 @@
       <c r="BM961" s="1"/>
       <c r="BN961" s="1"/>
     </row>
-    <row r="962" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -72197,141 +72008,177 @@
       <c r="BM962" s="1"/>
       <c r="BN962" s="1"/>
     </row>
-    <row r="963" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A963" s="1"/>
-      <c r="B963" s="1"/>
-      <c r="C963" s="1"/>
-      <c r="D963" s="1"/>
-      <c r="E963" s="1"/>
-      <c r="F963" s="1"/>
-      <c r="G963" s="1"/>
-      <c r="H963" s="1"/>
-      <c r="I963" s="1"/>
-      <c r="J963" s="1"/>
-      <c r="K963" s="1"/>
-      <c r="L963" s="1"/>
-      <c r="M963" s="1"/>
-      <c r="N963" s="1"/>
-      <c r="O963" s="1"/>
-      <c r="P963" s="1"/>
-      <c r="Q963" s="1"/>
-      <c r="R963" s="1"/>
-      <c r="S963" s="12"/>
-      <c r="T963" s="1"/>
-      <c r="U963" s="1"/>
-      <c r="V963" s="3"/>
-      <c r="W963" s="1"/>
-      <c r="X963" s="1"/>
-      <c r="Y963" s="1"/>
-      <c r="Z963" s="3"/>
-      <c r="AA963" s="1"/>
-      <c r="AB963" s="1"/>
-      <c r="AC963" s="1"/>
-      <c r="AD963" s="3"/>
-      <c r="AE963" s="1"/>
-      <c r="AF963" s="1"/>
-      <c r="AG963" s="1"/>
-      <c r="AH963" s="3"/>
-      <c r="AI963" s="1"/>
-      <c r="AJ963" s="1"/>
-      <c r="AK963" s="1"/>
-      <c r="AL963" s="3"/>
-      <c r="AM963" s="1"/>
-      <c r="AN963" s="1"/>
-      <c r="AO963" s="1"/>
-      <c r="AP963" s="3"/>
-      <c r="AQ963" s="1"/>
-      <c r="AR963" s="1"/>
-      <c r="AS963" s="1"/>
-      <c r="AT963" s="1"/>
-      <c r="AU963" s="1"/>
-      <c r="AV963" s="1"/>
-      <c r="AW963" s="1"/>
-      <c r="AZ963" s="1"/>
-      <c r="BA963" s="1"/>
-      <c r="BB963" s="1"/>
-      <c r="BC963" s="1"/>
-      <c r="BD963" s="1"/>
-      <c r="BE963" s="1"/>
-      <c r="BF963" s="1"/>
-      <c r="BG963" s="1"/>
-      <c r="BH963" s="1"/>
-      <c r="BI963" s="1"/>
-      <c r="BJ963" s="1"/>
-      <c r="BK963" s="1"/>
-      <c r="BL963" s="1"/>
-      <c r="BM963" s="1"/>
-      <c r="BN963" s="1"/>
-    </row>
-    <row r="964" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A964" s="1"/>
-      <c r="B964" s="1"/>
-      <c r="C964" s="1"/>
-      <c r="D964" s="1"/>
-      <c r="E964" s="1"/>
-      <c r="F964" s="1"/>
-      <c r="G964" s="1"/>
-      <c r="H964" s="1"/>
-      <c r="I964" s="1"/>
-      <c r="J964" s="1"/>
-      <c r="K964" s="1"/>
-      <c r="L964" s="1"/>
-      <c r="M964" s="1"/>
-      <c r="N964" s="1"/>
-      <c r="O964" s="1"/>
-      <c r="P964" s="1"/>
-      <c r="Q964" s="1"/>
-      <c r="R964" s="1"/>
-      <c r="S964" s="12"/>
-      <c r="T964" s="1"/>
-      <c r="U964" s="1"/>
-      <c r="V964" s="3"/>
-      <c r="W964" s="1"/>
-      <c r="X964" s="1"/>
-      <c r="Y964" s="1"/>
-      <c r="Z964" s="3"/>
-      <c r="AA964" s="1"/>
-      <c r="AB964" s="1"/>
-      <c r="AC964" s="1"/>
-      <c r="AD964" s="3"/>
-      <c r="AE964" s="1"/>
-      <c r="AF964" s="1"/>
-      <c r="AG964" s="1"/>
-      <c r="AH964" s="3"/>
-      <c r="AI964" s="1"/>
-      <c r="AJ964" s="1"/>
-      <c r="AK964" s="1"/>
-      <c r="AL964" s="3"/>
-      <c r="AM964" s="1"/>
-      <c r="AN964" s="1"/>
-      <c r="AO964" s="1"/>
-      <c r="AP964" s="3"/>
-      <c r="AQ964" s="1"/>
-      <c r="AR964" s="1"/>
-      <c r="AS964" s="1"/>
-      <c r="AT964" s="1"/>
-      <c r="AU964" s="1"/>
-      <c r="AV964" s="1"/>
-      <c r="AW964" s="1"/>
-      <c r="AZ964" s="1"/>
-      <c r="BA964" s="1"/>
-      <c r="BB964" s="1"/>
-      <c r="BC964" s="1"/>
-      <c r="BD964" s="1"/>
-      <c r="BE964" s="1"/>
-      <c r="BF964" s="1"/>
-      <c r="BG964" s="1"/>
-      <c r="BH964" s="1"/>
-      <c r="BI964" s="1"/>
-      <c r="BJ964" s="1"/>
-      <c r="BK964" s="1"/>
-      <c r="BL964" s="1"/>
-      <c r="BM964" s="1"/>
-      <c r="BN964" s="1"/>
-    </row>
+    <row r="963" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" spans="1:66" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1012" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1015" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1016" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1017" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1018" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1019" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1020" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1021" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1023" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1024" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1025" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1026" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1027" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1028" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1029" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1030" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1031" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1032" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1033" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1034" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1035" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1036" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1037" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1038" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1039" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1040" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1041" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1042" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1043" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1044" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1045" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1046" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1047" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1048" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1049" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1050" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1051" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1052" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1053" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1054" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1055" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1056" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1057" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1058" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1059" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1060" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1061" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1062" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1063" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1064" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1065" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1066" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1067" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1068" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1069" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1070" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1071" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1072" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1073" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1074" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1075" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1076" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1077" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1078" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1079" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1080" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1081" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1082" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1083" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1084" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1085" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1086" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1087" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1088" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1089" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1090" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1091" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1092" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1093" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1094" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1095" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1096" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1097" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1098" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1099" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1100" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1101" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1102" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1103" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1104" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1105" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1106" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1107" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1108" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1109" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1110" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1111" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1112" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1113" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1114" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1115" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1116" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1117" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1118" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1119" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1120" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1121" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1122" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1123" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1124" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1125" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1126" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1127" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1128" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1129" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1130" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="B4 A4:A57 A3:AT3 AQ4:AR4 C4:AP88 AS4:AT88 AQ5:AQ55">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="B4 A4:A57 A3:AT3 AQ4:AR4 AQ5:AQ55 C4:AP86 AS4:AT86">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($A3="Facility",$E3="Earth")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/StreamingAssets/scheduling/data/2023EarthAssets.xlsx
+++ b/Assets/StreamingAssets/scheduling/data/2023EarthAssets.xlsx
@@ -706,12 +706,12 @@
   <autoFilter ref="A2:AT1130">
     <filterColumn colId="0">
       <filters>
-        <filter val="Facility"/>
+        <filter val="Satellite"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A3:AT1132">
-    <sortCondition ref="B3:B1132"/>
+  <sortState ref="A3:AT74">
+    <sortCondition ref="AQ2:AQ1130"/>
   </sortState>
   <tableColumns count="46">
     <tableColumn id="1" name="Type"/>
@@ -966,10 +966,10 @@
   <dimension ref="A1:BN1130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR9" sqref="AR9"/>
+      <selection pane="bottomRight" activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1260,12 +1260,12 @@
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
     </row>
-    <row r="3" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="7"/>
       <c r="AS3" s="7">
-        <v>1.6203703703703682E-4</v>
-      </c>
-      <c r="AT3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU3" s="1"/>
@@ -1414,7 +1414,7 @@
       <c r="BM3" s="11"/>
       <c r="BN3" s="11"/>
     </row>
-    <row r="4" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS4" s="7">
         <v>1</v>
@@ -1568,7 +1568,7 @@
       <c r="BM4" s="1"/>
       <c r="BN4" s="1"/>
     </row>
-    <row r="5" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>56</v>
       </c>
@@ -1722,12 +1722,12 @@
       <c r="BM5" s="1"/>
       <c r="BN5" s="1"/>
     </row>
-    <row r="6" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -1850,11 +1850,11 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7">
-        <v>1.6041666666666669E-2</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="13" t="s">
         <v>55</v>
@@ -1876,12 +1876,12 @@
       <c r="BM6" s="1"/>
       <c r="BN6" s="1"/>
     </row>
-    <row r="7" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7">
-        <v>7.081018518518542E-2</v>
-      </c>
-      <c r="AT7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU7" s="1"/>
@@ -2030,7 +2030,7 @@
       <c r="BM7" s="1"/>
       <c r="BN7" s="1"/>
     </row>
-    <row r="8" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS8" s="7">
         <v>1</v>
@@ -2184,7 +2184,7 @@
       <c r="BM8" s="1"/>
       <c r="BN8" s="1"/>
     </row>
-    <row r="9" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS9" s="7">
         <v>1</v>
@@ -2338,7 +2338,7 @@
       <c r="BM9" s="1"/>
       <c r="BN9" s="1"/>
     </row>
-    <row r="10" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="AQ10" s="7"/>
       <c r="AR10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS10" s="7">
         <v>1</v>
@@ -2492,7 +2492,7 @@
       <c r="BM10" s="1"/>
       <c r="BN10" s="1"/>
     </row>
-    <row r="11" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="AQ11" s="7"/>
       <c r="AR11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS11" s="7">
         <v>1</v>
@@ -2646,12 +2646,12 @@
       <c r="BM11" s="1"/>
       <c r="BN11" s="1"/>
     </row>
-    <row r="12" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
@@ -2774,11 +2774,11 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR12" s="1"/>
       <c r="AS12" s="7">
-        <v>7.0648148148147918E-2</v>
+        <v>6.805555555555555E-2</v>
       </c>
       <c r="AT12" s="7" t="s">
         <v>55</v>
@@ -2800,7 +2800,7 @@
       <c r="BM12" s="1"/>
       <c r="BN12" s="1"/>
     </row>
-    <row r="13" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
@@ -2954,12 +2954,12 @@
       <c r="BM13" s="1"/>
       <c r="BN13" s="1"/>
     </row>
-    <row r="14" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8">
         <v>0</v>
@@ -3082,11 +3082,11 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="7">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AR14" s="1"/>
       <c r="AS14" s="7">
-        <v>7.1296296296296524E-3</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="AT14" s="13" t="s">
         <v>55</v>
@@ -3108,12 +3108,12 @@
       <c r="BM14" s="1"/>
       <c r="BN14" s="1"/>
     </row>
-    <row r="15" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -3236,11 +3236,11 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AR15" s="1"/>
       <c r="AS15" s="7">
-        <v>7.2916666666666668E-3</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="AT15" s="7" t="s">
         <v>55</v>
@@ -3261,12 +3261,12 @@
       <c r="BM15" s="1"/>
       <c r="BN15" s="1"/>
     </row>
-    <row r="16" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C16" s="8">
         <v>0</v>
@@ -3389,11 +3389,11 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AR16" s="1"/>
       <c r="AS16" s="7">
-        <v>7.2916666666666668E-3</v>
+        <v>3.5648148148148123E-2</v>
       </c>
       <c r="AT16" s="13" t="s">
         <v>55</v>
@@ -3414,12 +3414,12 @@
       <c r="BM16" s="1"/>
       <c r="BN16" s="1"/>
     </row>
-    <row r="17" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
@@ -3542,11 +3542,11 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AR17" s="1"/>
       <c r="AS17" s="7">
-        <v>1.8148148148148125E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="AT17" s="13" t="s">
         <v>55</v>
@@ -3567,12 +3567,12 @@
       <c r="BM17" s="1"/>
       <c r="BN17" s="1"/>
     </row>
-    <row r="18" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -3695,11 +3695,11 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="7">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AR18" s="1"/>
       <c r="AS18" s="7">
-        <v>7.9398148148147919E-3</v>
+        <v>3.4027777777777775E-2</v>
       </c>
       <c r="AT18" s="7" t="s">
         <v>55</v>
@@ -3720,12 +3720,12 @@
       <c r="BM18" s="1"/>
       <c r="BN18" s="1"/>
     </row>
-    <row r="19" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -3848,11 +3848,11 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AR19" s="1"/>
       <c r="AS19" s="7">
-        <v>9.7222222222222224E-3</v>
+        <v>3.111111111111111E-2</v>
       </c>
       <c r="AT19" s="7" t="s">
         <v>55</v>
@@ -3873,12 +3873,12 @@
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
     </row>
-    <row r="20" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -4001,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AR20" s="1"/>
       <c r="AS20" s="7">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="AT20" s="7" t="s">
+        <v>2.9814814814814794E-2</v>
+      </c>
+      <c r="AT20" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU20" s="1"/>
@@ -4026,12 +4026,12 @@
       <c r="BM20" s="1"/>
       <c r="BN20" s="1"/>
     </row>
-    <row r="21" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -4154,13 +4154,13 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AR21" s="1"/>
       <c r="AS21" s="7">
-        <v>9.7222222222222224E-3</v>
-      </c>
-      <c r="AT21" s="7" t="s">
+        <v>2.9004629629629654E-2</v>
+      </c>
+      <c r="AT21" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU21" s="1"/>
@@ -4179,12 +4179,12 @@
       <c r="BM21" s="1"/>
       <c r="BN21" s="1"/>
     </row>
-    <row r="22" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
@@ -4307,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="7">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="AR22" s="1"/>
       <c r="AS22" s="7">
-        <v>1.6203703703703682E-4</v>
-      </c>
-      <c r="AT22" s="7" t="s">
+        <v>2.8356481481481458E-2</v>
+      </c>
+      <c r="AT22" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU22" s="1"/>
@@ -4332,7 +4332,7 @@
       <c r="BM22" s="1"/>
       <c r="BN22" s="1"/>
     </row>
-    <row r="23" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>56</v>
       </c>
@@ -4485,12 +4485,12 @@
       <c r="BM23" s="1"/>
       <c r="BN23" s="1"/>
     </row>
-    <row r="24" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="7">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AR24" s="1"/>
       <c r="AS24" s="7">
-        <v>4.861111111111111E-4</v>
-      </c>
-      <c r="AT24" s="13" t="s">
+        <v>2.4467592592592569E-2</v>
+      </c>
+      <c r="AT24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU24" s="1"/>
@@ -4638,12 +4638,12 @@
       <c r="BM24" s="1"/>
       <c r="BN24" s="1"/>
     </row>
-    <row r="25" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="7">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="AR25" s="1"/>
       <c r="AS25" s="7">
-        <v>3.2407407407407434E-4</v>
-      </c>
-      <c r="AT25" s="13" t="s">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="AT25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU25" s="1"/>
@@ -4791,12 +4791,12 @@
       <c r="BM25" s="1"/>
       <c r="BN25" s="1"/>
     </row>
-    <row r="26" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
@@ -4919,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="AR26" s="1"/>
       <c r="AS26" s="7">
-        <v>8.1018518518518755E-4</v>
-      </c>
-      <c r="AT26" s="7" t="s">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="AT26" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU26" s="1"/>
@@ -4944,12 +4944,12 @@
       <c r="BM26" s="1"/>
       <c r="BN26" s="1"/>
     </row>
-    <row r="27" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C27" s="8">
         <v>0</v>
@@ -5072,11 +5072,11 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="7">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AR27" s="1"/>
       <c r="AS27" s="7">
-        <v>8.1018518518518755E-4</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="AT27" s="13" t="s">
         <v>55</v>
@@ -5097,12 +5097,12 @@
       <c r="BM27" s="1"/>
       <c r="BN27" s="1"/>
     </row>
-    <row r="28" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
@@ -5225,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="7">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="AR28" s="1"/>
       <c r="AS28" s="7">
-        <v>1.6203703703703682E-4</v>
-      </c>
-      <c r="AT28" s="7" t="s">
+        <v>2.3981481481481461E-2</v>
+      </c>
+      <c r="AT28" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU28" s="1"/>
@@ -5250,12 +5250,12 @@
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
     </row>
-    <row r="29" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C29" s="8">
         <v>0</v>
@@ -5378,11 +5378,11 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="7">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="AR29" s="1"/>
       <c r="AS29" s="7">
-        <v>1.6203703703703682E-4</v>
+        <v>1.8148148148148125E-2</v>
       </c>
       <c r="AT29" s="13" t="s">
         <v>55</v>
@@ -5403,7 +5403,7 @@
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
     </row>
-    <row r="30" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>56</v>
       </c>
@@ -5556,12 +5556,12 @@
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
     </row>
-    <row r="31" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" s="8">
         <v>0</v>
@@ -5684,13 +5684,13 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="7">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AR31" s="1"/>
       <c r="AS31" s="7">
-        <v>1.6203703703703682E-4</v>
-      </c>
-      <c r="AT31" s="7" t="s">
+        <v>1.6041666666666669E-2</v>
+      </c>
+      <c r="AT31" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU31" s="1"/>
@@ -5709,12 +5709,12 @@
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
     </row>
-    <row r="32" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C32" s="8">
         <v>0</v>
@@ -5837,13 +5837,13 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AR32" s="1"/>
       <c r="AS32" s="7">
-        <v>3.4027777777777775E-2</v>
-      </c>
-      <c r="AT32" s="7" t="s">
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="AT32" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU32" s="1"/>
@@ -5862,12 +5862,12 @@
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
     </row>
-    <row r="33" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C33" s="8">
         <v>0</v>
@@ -5990,13 +5990,13 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AR33" s="1"/>
       <c r="AS33" s="7">
-        <v>2.8356481481481458E-2</v>
-      </c>
-      <c r="AT33" s="13" t="s">
+        <v>1.0532407407407431E-2</v>
+      </c>
+      <c r="AT33" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU33" s="1"/>
@@ -6015,12 +6015,12 @@
       <c r="BM33" s="1"/>
       <c r="BN33" s="1"/>
     </row>
-    <row r="34" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C34" s="8">
         <v>0</v>
@@ -6143,11 +6143,11 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AR34" s="1"/>
       <c r="AS34" s="7">
-        <v>2.4467592592592569E-2</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="AT34" s="7" t="s">
         <v>55</v>
@@ -6168,12 +6168,12 @@
       <c r="BM34" s="1"/>
       <c r="BN34" s="1"/>
     </row>
-    <row r="35" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C35" s="8">
         <v>0</v>
@@ -6296,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="7">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AR35" s="1"/>
       <c r="AS35" s="7">
-        <v>1.6203703703703682E-4</v>
-      </c>
-      <c r="AT35" s="13" t="s">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="AT35" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU35" s="1"/>
@@ -6321,7 +6321,7 @@
       <c r="BM35" s="1"/>
       <c r="BN35" s="1"/>
     </row>
-    <row r="36" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>56</v>
       </c>
@@ -6474,12 +6474,12 @@
       <c r="BM36" s="1"/>
       <c r="BN36" s="1"/>
     </row>
-    <row r="37" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C37" s="8">
         <v>0</v>
@@ -6602,13 +6602,13 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AR37" s="1"/>
       <c r="AS37" s="7">
-        <v>1.4583333333333334E-2</v>
-      </c>
-      <c r="AT37" s="13" t="s">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="AT37" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU37" s="1"/>
@@ -6627,12 +6627,12 @@
       <c r="BM37" s="1"/>
       <c r="BN37" s="1"/>
     </row>
-    <row r="38" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="8">
         <v>0</v>
@@ -6755,11 +6755,11 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="7">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AR38" s="1"/>
       <c r="AS38" s="7">
-        <v>3.2407407407407434E-4</v>
+        <v>8.4259259259259027E-3</v>
       </c>
       <c r="AT38" s="7" t="s">
         <v>55</v>
@@ -6780,12 +6780,12 @@
       <c r="BM38" s="1"/>
       <c r="BN38" s="1"/>
     </row>
-    <row r="39" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C39" s="8">
         <v>0</v>
@@ -6908,13 +6908,13 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AR39" s="1"/>
       <c r="AS39" s="7">
-        <v>2.9814814814814794E-2</v>
-      </c>
-      <c r="AT39" s="13" t="s">
+        <v>8.4259259259259027E-3</v>
+      </c>
+      <c r="AT39" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU39" s="1"/>
@@ -6933,12 +6933,12 @@
       <c r="BM39" s="1"/>
       <c r="BN39" s="1"/>
     </row>
-    <row r="40" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C40" s="8">
         <v>0</v>
@@ -7061,11 +7061,11 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AR40" s="1"/>
       <c r="AS40" s="7">
-        <v>6.805555555555555E-2</v>
+        <v>7.9398148148147919E-3</v>
       </c>
       <c r="AT40" s="7" t="s">
         <v>55</v>
@@ -7086,7 +7086,7 @@
       <c r="BM40" s="1"/>
       <c r="BN40" s="1"/>
     </row>
-    <row r="41" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>56</v>
       </c>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="AQ41" s="7"/>
       <c r="AR41" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS41" s="7">
         <v>1</v>
@@ -7239,12 +7239,12 @@
       <c r="BM41" s="1"/>
       <c r="BN41" s="1"/>
     </row>
-    <row r="42" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C42" s="8">
         <v>0</v>
@@ -7367,13 +7367,13 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AR42" s="1"/>
       <c r="AS42" s="7">
-        <v>1.4583333333333334E-3</v>
-      </c>
-      <c r="AT42" s="7" t="s">
+        <v>7.2916666666666668E-3</v>
+      </c>
+      <c r="AT42" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU42" s="1"/>
@@ -7392,12 +7392,12 @@
       <c r="BM42" s="1"/>
       <c r="BN42" s="1"/>
     </row>
-    <row r="43" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C43" s="8">
         <v>0</v>
@@ -7520,13 +7520,13 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AR43" s="1"/>
       <c r="AS43" s="7">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="AT43" s="13" t="s">
+        <v>7.2916666666666668E-3</v>
+      </c>
+      <c r="AT43" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU43" s="1"/>
@@ -7545,12 +7545,12 @@
       <c r="BM43" s="1"/>
       <c r="BN43" s="1"/>
     </row>
-    <row r="44" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C44" s="8">
         <v>0</v>
@@ -7673,11 +7673,11 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AR44" s="1"/>
       <c r="AS44" s="7">
-        <v>1.2962962962962986E-3</v>
+        <v>7.1296296296296524E-3</v>
       </c>
       <c r="AT44" s="13" t="s">
         <v>55</v>
@@ -7698,12 +7698,12 @@
       <c r="BM44" s="1"/>
       <c r="BN44" s="1"/>
     </row>
-    <row r="45" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C45" s="8">
         <v>0</v>
@@ -7826,11 +7826,11 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AR45" s="1"/>
       <c r="AS45" s="7">
-        <v>1.0532407407407431E-2</v>
+        <v>6.4814814814814796E-3</v>
       </c>
       <c r="AT45" s="7" t="s">
         <v>55</v>
@@ -7851,7 +7851,7 @@
       <c r="BM45" s="1"/>
       <c r="BN45" s="1"/>
     </row>
-    <row r="46" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>56</v>
       </c>
@@ -8004,12 +8004,12 @@
       <c r="BM46" s="1"/>
       <c r="BN46" s="1"/>
     </row>
-    <row r="47" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C47" s="8">
         <v>0</v>
@@ -8132,11 +8132,11 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AR47" s="1"/>
       <c r="AS47" s="7">
-        <v>4.3749999999999997E-2</v>
+        <v>6.4814814814814796E-3</v>
       </c>
       <c r="AT47" s="7" t="s">
         <v>55</v>
@@ -8157,12 +8157,12 @@
       <c r="BM47" s="1"/>
       <c r="BN47" s="1"/>
     </row>
-    <row r="48" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C48" s="8">
         <v>0</v>
@@ -8285,13 +8285,13 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AR48" s="1"/>
       <c r="AS48" s="7">
-        <v>8.4259259259259027E-3</v>
-      </c>
-      <c r="AT48" s="7" t="s">
+        <v>6.4814814814814796E-3</v>
+      </c>
+      <c r="AT48" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU48" s="1"/>
@@ -8310,12 +8310,12 @@
       <c r="BM48" s="1"/>
       <c r="BN48" s="1"/>
     </row>
-    <row r="49" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C49" s="8">
         <v>0</v>
@@ -8438,13 +8438,13 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AR49" s="1"/>
       <c r="AS49" s="7">
-        <v>8.4259259259259027E-3</v>
-      </c>
-      <c r="AT49" s="7" t="s">
+        <v>2.5925925925925903E-3</v>
+      </c>
+      <c r="AT49" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU49" s="1"/>
@@ -8463,12 +8463,12 @@
       <c r="BM49" s="1"/>
       <c r="BN49" s="1"/>
     </row>
-    <row r="50" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C50" s="8">
         <v>0</v>
@@ -8591,11 +8591,11 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AR50" s="1"/>
       <c r="AS50" s="7">
-        <v>2.4305555555555556E-2</v>
+        <v>1.6203703703703679E-3</v>
       </c>
       <c r="AT50" s="13" t="s">
         <v>55</v>
@@ -8616,12 +8616,12 @@
       <c r="BM50" s="1"/>
       <c r="BN50" s="1"/>
     </row>
-    <row r="51" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C51" s="8">
         <v>0</v>
@@ -8744,11 +8744,11 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="AR51" s="1"/>
       <c r="AS51" s="7">
-        <v>4.3749999999999997E-2</v>
+        <v>1.6203703703703679E-3</v>
       </c>
       <c r="AT51" s="13" t="s">
         <v>55</v>
@@ -8769,12 +8769,12 @@
       <c r="BM51" s="1"/>
       <c r="BN51" s="1"/>
     </row>
-    <row r="52" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>140</v>
+      <c r="B52" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C52" s="8">
         <v>0</v>
@@ -8897,11 +8897,11 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="7">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AR52" s="1"/>
       <c r="AS52" s="7">
-        <v>1</v>
+        <v>1.6203703703703679E-3</v>
       </c>
       <c r="AT52" s="7" t="s">
         <v>55</v>
@@ -8922,12 +8922,12 @@
       <c r="BM52" s="1"/>
       <c r="BN52" s="1"/>
     </row>
-    <row r="53" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C53" s="8">
         <v>0</v>
@@ -9050,13 +9050,13 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="AR53" s="1"/>
       <c r="AS53" s="7">
-        <v>2.9004629629629654E-2</v>
-      </c>
-      <c r="AT53" s="13" t="s">
+        <v>1.4583333333333334E-3</v>
+      </c>
+      <c r="AT53" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU53" s="1"/>
@@ -9075,12 +9075,12 @@
       <c r="BM53" s="1"/>
       <c r="BN53" s="1"/>
     </row>
-    <row r="54" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C54" s="8">
         <v>0</v>
@@ -9203,11 +9203,11 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR54" s="1"/>
       <c r="AS54" s="7">
-        <v>1.6203703703703679E-3</v>
+        <v>1.2962962962962986E-3</v>
       </c>
       <c r="AT54" s="13" t="s">
         <v>55</v>
@@ -9228,7 +9228,7 @@
       <c r="BM54" s="1"/>
       <c r="BN54" s="1"/>
     </row>
-    <row r="55" spans="1:66" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:66" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>56</v>
       </c>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="AQ55" s="7"/>
       <c r="AR55" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS55" s="7">
         <v>1</v>
@@ -9382,7 +9382,7 @@
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
     </row>
-    <row r="56" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>56</v>
       </c>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS56" s="7">
         <v>1</v>
@@ -9536,7 +9536,7 @@
       <c r="BM56" s="1"/>
       <c r="BN56" s="1"/>
     </row>
-    <row r="57" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>56</v>
       </c>
@@ -9690,7 +9690,7 @@
       <c r="BM57" s="7"/>
       <c r="BN57" s="7"/>
     </row>
-    <row r="58" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
@@ -9844,7 +9844,7 @@
       <c r="BM58" s="1"/>
       <c r="BN58" s="1"/>
     </row>
-    <row r="59" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>56</v>
       </c>
@@ -9998,12 +9998,12 @@
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
     </row>
-    <row r="60" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C60" s="8">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AR60" s="7"/>
       <c r="AS60" s="7">
-        <v>9.7384259259259032E-2</v>
-      </c>
-      <c r="AT60" s="7" t="s">
+        <v>1.2962962962962986E-3</v>
+      </c>
+      <c r="AT60" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU60" s="1"/>
@@ -10152,12 +10152,12 @@
       <c r="BM60" s="1"/>
       <c r="BN60" s="1"/>
     </row>
-    <row r="61" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C61" s="8">
         <v>0</v>
@@ -10280,11 +10280,11 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="1">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="AR61" s="7"/>
       <c r="AS61" s="7">
-        <v>2.4305555555555556E-2</v>
+        <v>8.1018518518518755E-4</v>
       </c>
       <c r="AT61" s="13" t="s">
         <v>55</v>
@@ -10306,12 +10306,12 @@
       <c r="BM61" s="1"/>
       <c r="BN61" s="1"/>
     </row>
-    <row r="62" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C62" s="8">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="1">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="AR62" s="7"/>
       <c r="AS62" s="7">
-        <v>2.3981481481481461E-2</v>
-      </c>
-      <c r="AT62" s="13" t="s">
+        <v>8.1018518518518755E-4</v>
+      </c>
+      <c r="AT62" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU62" s="1"/>
@@ -10460,12 +10460,12 @@
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
     </row>
-    <row r="63" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C63" s="8">
         <v>0</v>
@@ -10588,11 +10588,11 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="1">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AR63" s="7"/>
       <c r="AS63" s="7">
-        <v>9.7222222222222224E-3</v>
+        <v>6.4814814814814791E-4</v>
       </c>
       <c r="AT63" s="7" t="s">
         <v>55</v>
@@ -10614,12 +10614,12 @@
       <c r="BM63" s="1"/>
       <c r="BN63" s="1"/>
     </row>
-    <row r="64" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C64" s="8">
         <v>0</v>
@@ -10742,11 +10742,11 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AR64" s="7"/>
       <c r="AS64" s="7">
-        <v>1.2962962962962986E-3</v>
+        <v>4.861111111111111E-4</v>
       </c>
       <c r="AT64" s="13" t="s">
         <v>55</v>
@@ -10768,12 +10768,12 @@
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
     </row>
-    <row r="65" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C65" s="8">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="1">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7">
-        <v>3.5648148148148123E-2</v>
-      </c>
-      <c r="AT65" s="13" t="s">
+        <v>3.2407407407407434E-4</v>
+      </c>
+      <c r="AT65" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU65" s="1"/>
@@ -10922,7 +10922,7 @@
       <c r="BM65" s="1"/>
       <c r="BN65" s="1"/>
     </row>
-    <row r="66" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>56</v>
       </c>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="AQ66" s="1"/>
       <c r="AR66" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS66" s="7">
         <v>1</v>
@@ -11076,12 +11076,12 @@
       <c r="BM66" s="1"/>
       <c r="BN66" s="1"/>
     </row>
-    <row r="67" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C67" s="8">
         <v>0</v>
@@ -11204,13 +11204,13 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="1">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="AR67" s="7"/>
       <c r="AS67" s="7">
-        <v>3.111111111111111E-2</v>
-      </c>
-      <c r="AT67" s="7" t="s">
+        <v>3.2407407407407434E-4</v>
+      </c>
+      <c r="AT67" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU67" s="1"/>
@@ -11230,12 +11230,12 @@
       <c r="BM67" s="1"/>
       <c r="BN67" s="1"/>
     </row>
-    <row r="68" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C68" s="8">
         <v>0</v>
@@ -11358,13 +11358,13 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AR68" s="7"/>
       <c r="AS68" s="7">
-        <v>6.4814814814814791E-4</v>
-      </c>
-      <c r="AT68" s="7" t="s">
+        <v>1.6203703703703682E-4</v>
+      </c>
+      <c r="AT68" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU68" s="1"/>
@@ -11384,12 +11384,12 @@
       <c r="BM68" s="1"/>
       <c r="BN68" s="1"/>
     </row>
-    <row r="69" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C69" s="8">
         <v>0</v>
@@ -11512,13 +11512,13 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="1">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="AR69" s="7"/>
       <c r="AS69" s="7">
-        <v>2.5925925925925903E-3</v>
-      </c>
-      <c r="AT69" s="13" t="s">
+        <v>1.6203703703703682E-4</v>
+      </c>
+      <c r="AT69" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU69" s="1"/>
@@ -11540,12 +11540,12 @@
       <c r="BM69" s="1"/>
       <c r="BN69" s="1"/>
     </row>
-    <row r="70" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C70" s="8">
         <v>0</v>
@@ -11668,11 +11668,11 @@
         <v>0</v>
       </c>
       <c r="AQ70" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AR70" s="7"/>
       <c r="AS70" s="7">
-        <v>6.4814814814814796E-3</v>
+        <v>1.6203703703703682E-4</v>
       </c>
       <c r="AT70" s="7" t="s">
         <v>55</v>
@@ -11696,12 +11696,12 @@
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
     </row>
-    <row r="71" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C71" s="8">
         <v>0</v>
@@ -11824,13 +11824,13 @@
         <v>0</v>
       </c>
       <c r="AQ71" s="1">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AR71" s="7"/>
       <c r="AS71" s="7">
-        <v>1.6203703703703679E-3</v>
-      </c>
-      <c r="AT71" s="7" t="s">
+        <v>1.6203703703703682E-4</v>
+      </c>
+      <c r="AT71" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU71" s="1"/>
@@ -11852,12 +11852,12 @@
       <c r="BM71" s="1"/>
       <c r="BN71" s="1"/>
     </row>
-    <row r="72" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C72" s="8">
         <v>0</v>
@@ -11980,13 +11980,13 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="1">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AR72" s="7"/>
       <c r="AS72" s="7">
-        <v>1.6203703703703679E-3</v>
-      </c>
-      <c r="AT72" s="13" t="s">
+        <v>1.6203703703703682E-4</v>
+      </c>
+      <c r="AT72" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU72" s="1"/>
@@ -12008,12 +12008,12 @@
       <c r="BM72" s="1"/>
       <c r="BN72" s="1"/>
     </row>
-    <row r="73" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C73" s="8">
         <v>0</v>
@@ -12136,13 +12136,13 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="1">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AR73" s="7"/>
       <c r="AS73" s="7">
-        <v>6.4814814814814796E-3</v>
-      </c>
-      <c r="AT73" s="7" t="s">
+        <v>1.6203703703703682E-4</v>
+      </c>
+      <c r="AT73" s="13" t="s">
         <v>55</v>
       </c>
       <c r="AU73" s="1"/>
@@ -12164,12 +12164,12 @@
       <c r="BM73" s="1"/>
       <c r="BN73" s="1"/>
     </row>
-    <row r="74" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>74</v>
+      <c r="B74" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C74" s="8">
         <v>0</v>
@@ -12292,13 +12292,13 @@
         <v>0</v>
       </c>
       <c r="AQ74" s="1">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="AR74" s="7"/>
       <c r="AS74" s="7">
-        <v>6.4814814814814796E-3</v>
-      </c>
-      <c r="AT74" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT74" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AU74" s="1"/>
@@ -12320,7 +12320,7 @@
       <c r="BM74" s="1"/>
       <c r="BN74" s="1"/>
     </row>
-    <row r="75" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>56</v>
       </c>
@@ -12476,7 +12476,7 @@
       <c r="BM75" s="1"/>
       <c r="BN75" s="1"/>
     </row>
-    <row r="76" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>56</v>
       </c>
@@ -12632,7 +12632,7 @@
       <c r="BM76" s="1"/>
       <c r="BN76" s="1"/>
     </row>
-    <row r="77" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>56</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="BM77" s="1"/>
       <c r="BN77" s="1"/>
     </row>
-    <row r="78" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>56</v>
       </c>
@@ -12944,7 +12944,7 @@
       <c r="BM78" s="1"/>
       <c r="BN78" s="1"/>
     </row>
-    <row r="79" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>56</v>
       </c>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="AQ79" s="1"/>
       <c r="AR79" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS79" s="7">
         <v>1</v>
@@ -13100,7 +13100,7 @@
       <c r="BM79" s="1"/>
       <c r="BN79" s="1"/>
     </row>
-    <row r="80" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>56</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="BM80" s="1"/>
       <c r="BN80" s="1"/>
     </row>
-    <row r="81" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>56</v>
       </c>
@@ -13412,7 +13412,7 @@
       <c r="BM81" s="1"/>
       <c r="BN81" s="1"/>
     </row>
-    <row r="82" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>56</v>
       </c>
@@ -13568,7 +13568,7 @@
       <c r="BM82" s="1"/>
       <c r="BN82" s="1"/>
     </row>
-    <row r="83" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>56</v>
       </c>
@@ -13724,7 +13724,7 @@
       <c r="BM83" s="1"/>
       <c r="BN83" s="1"/>
     </row>
-    <row r="84" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>56</v>
       </c>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="AQ84" s="1"/>
       <c r="AR84" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AS84" s="7">
         <v>1</v>
@@ -13880,7 +13880,7 @@
       <c r="BM84" s="1"/>
       <c r="BN84" s="1"/>
     </row>
-    <row r="85" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>56</v>
       </c>
@@ -14009,7 +14009,7 @@
       </c>
       <c r="AQ85" s="1"/>
       <c r="AR85" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS85" s="7">
         <v>1</v>
@@ -14036,7 +14036,7 @@
       <c r="BM85" s="1"/>
       <c r="BN85" s="1"/>
     </row>
-    <row r="86" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>56</v>
       </c>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="AQ86" s="7"/>
       <c r="AR86" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AS86" s="7">
         <v>1</v>
